--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>947580.075581928</v>
+        <v>946900.6584800967</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038459</v>
+        <v>5588220.064038455</v>
       </c>
     </row>
     <row r="8">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7134039554107</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>73.86660592230578</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>239.9403233994414</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>151.8262626552655</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.04258570959359</v>
+        <v>48.04258570959368</v>
       </c>
       <c r="U11" t="n">
-        <v>80.89774890663892</v>
+        <v>80.89774890663901</v>
       </c>
       <c r="V11" t="n">
-        <v>162.2197811955898</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W11" t="n">
-        <v>187.5198806735467</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X11" t="n">
-        <v>52.14301922535716</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>218.2167367024922</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1449,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>14.08671310092206</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U12" t="n">
-        <v>200.1620045988662</v>
+        <v>44.89856912753546</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>54.72196615872122</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>77.31284310530921</v>
       </c>
       <c r="X12" t="n">
-        <v>24.54811807355512</v>
+        <v>24.5481180735552</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.20641291948871</v>
+        <v>19.2064129194888</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.33011483010779</v>
+        <v>10.33011483010787</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.39157652215682</v>
+        <v>35.3915765221569</v>
       </c>
       <c r="T13" t="n">
-        <v>153.3427429913966</v>
+        <v>58.28273605053796</v>
       </c>
       <c r="U13" t="n">
-        <v>112.9136404279223</v>
+        <v>112.9136404279224</v>
       </c>
       <c r="V13" t="n">
-        <v>86.73825122973338</v>
+        <v>86.73825122973346</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9051373003466</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>57.55023929614975</v>
+        <v>116.8849779581634</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.42510705221744</v>
+        <v>48.42510705221753</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>218.7134039554107</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G14" t="n">
-        <v>209.9302563369162</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>151.8262626552655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>48.04258570959361</v>
       </c>
       <c r="U14" t="n">
-        <v>80.89774890663892</v>
+        <v>80.89774890663895</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>206.8201389062934</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.2167367024921</v>
+        <v>43.27721972522065</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>14.08671310092206</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U15" t="n">
-        <v>44.89856912753537</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>54.72196615872116</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>67.51300991159485</v>
       </c>
       <c r="X15" t="n">
-        <v>31.65065255340403</v>
+        <v>135.5351255772236</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.33011483010779</v>
+        <v>10.33011483010782</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>19.31606237310569</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.39157652215682</v>
+        <v>94.72631518417082</v>
       </c>
       <c r="T16" t="n">
-        <v>58.28273605053787</v>
+        <v>58.2827360505379</v>
       </c>
       <c r="U16" t="n">
         <v>112.9136404279223</v>
       </c>
       <c r="V16" t="n">
-        <v>86.73825122973338</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>111.9051373003467</v>
       </c>
       <c r="X16" t="n">
-        <v>57.55023929614975</v>
+        <v>57.55023929614978</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.42510705221744</v>
+        <v>48.42510705221747</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389616</v>
       </c>
       <c r="C17" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966434</v>
       </c>
       <c r="D17" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117135</v>
       </c>
       <c r="E17" t="n">
-        <v>118.8615799110771</v>
+        <v>118.8615799110769</v>
       </c>
       <c r="F17" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990541</v>
       </c>
       <c r="G17" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829941</v>
       </c>
       <c r="H17" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881635</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914075</v>
       </c>
       <c r="W17" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709766</v>
       </c>
       <c r="X17" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898443</v>
       </c>
       <c r="Y17" t="n">
-        <v>117.6301540860432</v>
+        <v>117.630154086043</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>27.55504475132525</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>216.2882692949636</v>
@@ -1983,7 +1983,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>52.7395348235593</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>284.3033405953505</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>249.8580695697811</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>11.31855468389756</v>
       </c>
       <c r="X19" t="n">
-        <v>33.70721505100818</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389616</v>
       </c>
       <c r="C20" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966434</v>
       </c>
       <c r="D20" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117135</v>
       </c>
       <c r="E20" t="n">
-        <v>118.8615799110771</v>
+        <v>118.8615799110769</v>
       </c>
       <c r="F20" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990541</v>
       </c>
       <c r="G20" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829924</v>
       </c>
       <c r="H20" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881635</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914075</v>
       </c>
       <c r="W20" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709766</v>
       </c>
       <c r="X20" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898443</v>
       </c>
       <c r="Y20" t="n">
-        <v>117.6301540860432</v>
+        <v>117.630154086043</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>108.0423886637143</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>48.83991674902735</v>
       </c>
       <c r="T21" t="n">
         <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>16.14549248464975</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>15.12980963648917</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147322</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>11.31855468389773</v>
+        <v>11.31855468389756</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>112.912159431424</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389616</v>
       </c>
       <c r="C23" t="n">
-        <v>106.1381382966435</v>
+        <v>106.1381382966434</v>
       </c>
       <c r="D23" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117135</v>
       </c>
       <c r="E23" t="n">
-        <v>118.8615799110771</v>
+        <v>118.8615799110769</v>
       </c>
       <c r="F23" t="n">
-        <v>138.0333959990542</v>
+        <v>138.0333959990541</v>
       </c>
       <c r="G23" t="n">
-        <v>139.3537407829925</v>
+        <v>139.3537407829924</v>
       </c>
       <c r="H23" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881636</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914075</v>
       </c>
       <c r="W23" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709766</v>
       </c>
       <c r="X23" t="n">
-        <v>106.2335562898444</v>
+        <v>106.2335562898443</v>
       </c>
       <c r="Y23" t="n">
-        <v>117.6301540860432</v>
+        <v>117.630154086043</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>33.53712152640374</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>177.2728139007654</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147322</v>
       </c>
       <c r="V25" t="n">
-        <v>240.6054796845215</v>
+        <v>61.24866259988445</v>
       </c>
       <c r="W25" t="n">
-        <v>11.31855468389773</v>
+        <v>11.31855468389756</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>289.108279482593</v>
+        <v>289.1082794825929</v>
       </c>
       <c r="C26" t="n">
         <v>277.1195964402747</v>
@@ -2573,7 +2573,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I26" t="n">
-        <v>46.4644838304461</v>
+        <v>46.46448383044603</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718226</v>
+        <v>70.39487552718219</v>
       </c>
       <c r="T26" t="n">
-        <v>118.4374612367759</v>
+        <v>118.4374612367758</v>
       </c>
       <c r="U26" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338211</v>
       </c>
       <c r="V26" t="n">
         <v>232.6146567227721</v>
@@ -2621,7 +2621,7 @@
         <v>277.2150144334756</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296743</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72499035729008</v>
+        <v>80.72499035729001</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269056</v>
+        <v>66.92498520269049</v>
       </c>
       <c r="D28" t="n">
-        <v>50.54634960026895</v>
+        <v>50.54634960026888</v>
       </c>
       <c r="E28" t="n">
-        <v>49.4940994560484</v>
+        <v>49.49409945604833</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423471</v>
+        <v>49.96102378423464</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750531</v>
+        <v>65.96079029750524</v>
       </c>
       <c r="H28" t="n">
-        <v>54.33966129645896</v>
+        <v>54.33966129645889</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019762</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833749</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7864520493391</v>
+        <v>105.786452049339</v>
       </c>
       <c r="T28" t="n">
         <v>128.6776115777201</v>
       </c>
       <c r="U28" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551045</v>
       </c>
       <c r="V28" t="n">
-        <v>157.1331267569157</v>
+        <v>157.1331267569156</v>
       </c>
       <c r="W28" t="n">
         <v>182.3000128275289</v>
@@ -2810,7 +2810,7 @@
         <v>222.2211381824477</v>
       </c>
       <c r="I29" t="n">
-        <v>46.4644838304461</v>
+        <v>46.46448383044608</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72499035729008</v>
+        <v>80.72499035729007</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92498520269056</v>
+        <v>66.92498520269055</v>
       </c>
       <c r="D31" t="n">
-        <v>50.54634960026895</v>
+        <v>50.54634960026894</v>
       </c>
       <c r="E31" t="n">
-        <v>49.4940994560484</v>
+        <v>49.49409945604839</v>
       </c>
       <c r="F31" t="n">
-        <v>49.96102378423471</v>
+        <v>49.9610237842347</v>
       </c>
       <c r="G31" t="n">
-        <v>65.96079029750531</v>
+        <v>65.9607902975053</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33966129645896</v>
+        <v>54.33966129645895</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019767</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833755</v>
       </c>
       <c r="S31" t="n">
         <v>105.7864520493391</v>
@@ -3029,25 +3029,25 @@
         <v>289.108279482593</v>
       </c>
       <c r="C32" t="n">
-        <v>277.1195964402747</v>
+        <v>277.1195964402748</v>
       </c>
       <c r="D32" t="n">
-        <v>268.1009004848027</v>
+        <v>268.1009004848028</v>
       </c>
       <c r="E32" t="n">
-        <v>289.8430380547082</v>
+        <v>289.8430380547083</v>
       </c>
       <c r="F32" t="n">
-        <v>309.0148541426854</v>
+        <v>309.0148541426855</v>
       </c>
       <c r="G32" t="n">
-        <v>310.3351989266237</v>
+        <v>310.3351989266238</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824477</v>
+        <v>222.2211381824478</v>
       </c>
       <c r="I32" t="n">
-        <v>46.4644838304461</v>
+        <v>46.46448383044613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718225</v>
+        <v>70.39487552718228</v>
       </c>
       <c r="T32" t="n">
         <v>118.4374612367759</v>
@@ -3086,13 +3086,13 @@
         <v>151.2926244338212</v>
       </c>
       <c r="V32" t="n">
-        <v>232.6146567227721</v>
+        <v>232.6146567227722</v>
       </c>
       <c r="W32" t="n">
-        <v>257.914756200729</v>
+        <v>257.9147562007291</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2150144334756</v>
+        <v>277.2150144334757</v>
       </c>
       <c r="Y32" t="n">
         <v>288.6116122296744</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72499035729008</v>
+        <v>80.72499035729011</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269056</v>
+        <v>66.92498520269059</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026895</v>
+        <v>50.54634960026898</v>
       </c>
       <c r="E34" t="n">
-        <v>49.4940994560484</v>
+        <v>49.49409945604843</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423471</v>
+        <v>49.96102378423474</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750531</v>
+        <v>65.96079029750534</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645897</v>
+        <v>54.339661296459</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019771</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833758</v>
       </c>
       <c r="S34" t="n">
         <v>105.7864520493391</v>
       </c>
       <c r="T34" t="n">
-        <v>128.6776115777201</v>
+        <v>128.6776115777202</v>
       </c>
       <c r="U34" t="n">
         <v>183.3085159551046</v>
@@ -3247,13 +3247,13 @@
         <v>157.1331267569157</v>
       </c>
       <c r="W34" t="n">
-        <v>182.3000128275289</v>
+        <v>182.300012827529</v>
       </c>
       <c r="X34" t="n">
-        <v>127.945114823332</v>
+        <v>127.9451148233321</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8199825793997</v>
+        <v>118.8199825793998</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.3049220700377</v>
+        <v>210.3049220700379</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3162390277195</v>
+        <v>198.3162390277197</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722475</v>
+        <v>189.2975430722477</v>
       </c>
       <c r="E35" t="n">
-        <v>211.039680642153</v>
+        <v>211.0396806421532</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301302</v>
+        <v>230.2114967301304</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140685</v>
+        <v>231.5318415140687</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698925</v>
+        <v>143.4177807698927</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422063</v>
+        <v>39.63410382422082</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126596</v>
+        <v>72.48926702126616</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102169</v>
+        <v>153.8112993102171</v>
       </c>
       <c r="W35" t="n">
-        <v>179.1113987881738</v>
+        <v>179.111398788174</v>
       </c>
       <c r="X35" t="n">
-        <v>198.4116570209204</v>
+        <v>198.4116570209206</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171191</v>
+        <v>209.8082548171193</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H36" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S36" t="n">
-        <v>56.92125511705588</v>
+        <v>113.8672900536383</v>
       </c>
       <c r="T36" t="n">
         <v>185.4764132683503</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944734824</v>
+        <v>1.921632944735023</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>118.1941118596245</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678385</v>
+        <v>26.98309463678405</v>
       </c>
       <c r="T37" t="n">
-        <v>229.6724362179661</v>
+        <v>168.0683660247886</v>
       </c>
       <c r="U37" t="n">
-        <v>104.5051585425493</v>
+        <v>104.5051585425495</v>
       </c>
       <c r="V37" t="n">
-        <v>78.32976934436041</v>
+        <v>78.32976934436061</v>
       </c>
       <c r="W37" t="n">
-        <v>103.4966554149737</v>
+        <v>103.4966554149739</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077679</v>
+        <v>49.14175741077699</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684448</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.3049220700377</v>
+        <v>210.3049220700379</v>
       </c>
       <c r="C38" t="n">
-        <v>198.3162390277195</v>
+        <v>198.3162390277197</v>
       </c>
       <c r="D38" t="n">
-        <v>189.2975430722474</v>
+        <v>189.2975430722477</v>
       </c>
       <c r="E38" t="n">
-        <v>211.039680642153</v>
+        <v>211.0396806421532</v>
       </c>
       <c r="F38" t="n">
-        <v>230.2114967301301</v>
+        <v>230.2114967301304</v>
       </c>
       <c r="G38" t="n">
-        <v>231.5318415140684</v>
+        <v>231.5318415140687</v>
       </c>
       <c r="H38" t="n">
-        <v>143.4177807698924</v>
+        <v>143.4177807698927</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.6341038242206</v>
+        <v>39.63410382422082</v>
       </c>
       <c r="U38" t="n">
-        <v>72.48926702126593</v>
+        <v>72.48926702126616</v>
       </c>
       <c r="V38" t="n">
-        <v>153.8112993102168</v>
+        <v>153.8112993102171</v>
       </c>
       <c r="W38" t="n">
-        <v>179.1113987881737</v>
+        <v>179.111398788174</v>
       </c>
       <c r="X38" t="n">
-        <v>198.4116570209204</v>
+        <v>198.4116570209206</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.8082548171191</v>
+        <v>209.8082548171193</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.40745017229533</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S39" t="n">
-        <v>0.5138049447602816</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T39" t="n">
         <v>185.4764132683503</v>
@@ -3639,7 +3639,7 @@
         <v>216.2882692949636</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>194.7988575140004</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.921632944734796</v>
+        <v>1.921632944735023</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>146.4511196719112</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.12980963648917</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.98309463678383</v>
+        <v>26.98309463678405</v>
       </c>
       <c r="T40" t="n">
-        <v>49.87425416516488</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U40" t="n">
-        <v>104.5051585425493</v>
+        <v>104.5051585425495</v>
       </c>
       <c r="V40" t="n">
-        <v>78.32976934436039</v>
+        <v>181.3940715674948</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4966554149736</v>
+        <v>103.4966554149739</v>
       </c>
       <c r="X40" t="n">
-        <v>49.14175741077676</v>
+        <v>49.14175741077699</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.01662516684445</v>
+        <v>40.01662516684468</v>
       </c>
     </row>
     <row r="41">
@@ -3834,10 +3834,10 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H42" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.40319430595718</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>38.82520712046114</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>119.1744363629985</v>
       </c>
       <c r="T42" t="n">
         <v>185.4764132683503</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.3364176930454</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>27.3913366605809</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896195</v>
+        <v>165.6189138820074</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663464</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V43" t="n">
         <v>78.73801136815746</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>103.9048974387707</v>
       </c>
       <c r="X43" t="n">
         <v>49.54999943457383</v>
@@ -3980,7 +3980,7 @@
         <v>198.7244810515165</v>
       </c>
       <c r="D44" t="n">
-        <v>189.7057850960435</v>
+        <v>189.7057850960445</v>
       </c>
       <c r="E44" t="n">
         <v>211.44792266595</v>
@@ -3992,7 +3992,7 @@
         <v>231.9400835378655</v>
       </c>
       <c r="H44" t="n">
-        <v>143.8260227936895</v>
+        <v>143.8260227936909</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4065,13 +4065,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>11.56995550979247</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>212.8970475762328</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.01867628890815</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>50.28249618896195</v>
       </c>
       <c r="U46" t="n">
-        <v>192.9500981224838</v>
+        <v>104.9134005663464</v>
       </c>
       <c r="V46" t="n">
         <v>78.73801136815746</v>
       </c>
       <c r="W46" t="n">
-        <v>103.9048974387707</v>
+        <v>204.1115054953271</v>
       </c>
       <c r="X46" t="n">
         <v>49.54999943457383</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.42486719064152</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>419.2509940713562</v>
+        <v>251.4997642964715</v>
       </c>
       <c r="C11" t="n">
-        <v>419.2509940713562</v>
+        <v>176.8870310416173</v>
       </c>
       <c r="D11" t="n">
-        <v>419.2509940713562</v>
+        <v>176.8870310416173</v>
       </c>
       <c r="E11" t="n">
-        <v>419.2509940713562</v>
+        <v>176.8870310416173</v>
       </c>
       <c r="F11" t="n">
-        <v>419.2509940713562</v>
+        <v>176.8870310416173</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8870310416172</v>
+        <v>176.8870310416173</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0265863185274</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="K11" t="n">
-        <v>147.0265863185274</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="L11" t="n">
-        <v>434.1018702361339</v>
+        <v>147.0265863185275</v>
       </c>
       <c r="M11" t="n">
-        <v>725.2505961853287</v>
+        <v>434.1018702361341</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2505961853287</v>
+        <v>725.250596185329</v>
       </c>
       <c r="O11" t="n">
-        <v>1016.399322134524</v>
+        <v>725.250596185329</v>
       </c>
       <c r="P11" t="n">
         <v>1016.399322134524</v>
@@ -5075,16 +5075,16 @@
         <v>1046.115726444997</v>
       </c>
       <c r="V11" t="n">
-        <v>882.2573616009669</v>
+        <v>882.2573616009664</v>
       </c>
       <c r="W11" t="n">
-        <v>692.8433407185964</v>
+        <v>692.8433407185958</v>
       </c>
       <c r="X11" t="n">
-        <v>640.1736243293468</v>
+        <v>692.8433407185958</v>
       </c>
       <c r="Y11" t="n">
-        <v>640.1736243293468</v>
+        <v>472.4223945544622</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>286.6182124700268</v>
+        <v>420.8081078829507</v>
       </c>
       <c r="C12" t="n">
-        <v>286.6182124700268</v>
+        <v>259.1044351239054</v>
       </c>
       <c r="D12" t="n">
-        <v>286.6182124700268</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6182124700268</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="F12" t="n">
-        <v>151.9244144199012</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="G12" t="n">
-        <v>23.52716977367231</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="H12" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367231</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="J12" t="n">
-        <v>114.4548830157154</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="K12" t="n">
-        <v>396.371446695301</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="L12" t="n">
-        <v>594.061036785226</v>
+        <v>302.9123108360313</v>
       </c>
       <c r="M12" t="n">
-        <v>594.061036785226</v>
+        <v>594.0610367852262</v>
       </c>
       <c r="N12" t="n">
-        <v>594.061036785226</v>
+        <v>885.209762734421</v>
       </c>
       <c r="O12" t="n">
-        <v>885.2097627344208</v>
+        <v>885.209762734421</v>
       </c>
       <c r="P12" t="n">
         <v>1176.358488683616</v>
@@ -5142,28 +5142,28 @@
         <v>1176.358488683616</v>
       </c>
       <c r="R12" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753857</v>
       </c>
       <c r="S12" t="n">
-        <v>1176.358488683616</v>
+        <v>990.4945432429591</v>
       </c>
       <c r="T12" t="n">
-        <v>1162.129485551371</v>
+        <v>803.1446308506861</v>
       </c>
       <c r="U12" t="n">
-        <v>959.9456425222133</v>
+        <v>757.7925408228725</v>
       </c>
       <c r="V12" t="n">
-        <v>731.5500199705473</v>
+        <v>702.517827531235</v>
       </c>
       <c r="W12" t="n">
-        <v>490.2341512038573</v>
+        <v>624.4240466167812</v>
       </c>
       <c r="X12" t="n">
-        <v>465.4380723416804</v>
+        <v>599.6279677546042</v>
       </c>
       <c r="Y12" t="n">
-        <v>446.0376552512877</v>
+        <v>580.2275506642115</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="C13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="D13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="E13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="F13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="G13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="H13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="I13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="J13" t="n">
-        <v>416.4986487456214</v>
+        <v>23.52716977367232</v>
       </c>
       <c r="K13" t="n">
-        <v>481.725999143309</v>
+        <v>88.75452017135987</v>
       </c>
       <c r="L13" t="n">
-        <v>622.7998392656251</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M13" t="n">
-        <v>783.4598707161094</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N13" t="n">
-        <v>943.5342231807874</v>
+        <v>550.5627442088385</v>
       </c>
       <c r="O13" t="n">
-        <v>1080.470243145141</v>
+        <v>687.4987641731925</v>
       </c>
       <c r="P13" t="n">
-        <v>1176.358488683616</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="Q13" t="n">
-        <v>1176.358488683616</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="R13" t="n">
-        <v>1039.323708998178</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="S13" t="n">
-        <v>1003.57464180408</v>
+        <v>747.6379425175688</v>
       </c>
       <c r="T13" t="n">
-        <v>848.6829822168107</v>
+        <v>688.7664919614699</v>
       </c>
       <c r="U13" t="n">
-        <v>734.6287999663841</v>
+        <v>574.7123097110432</v>
       </c>
       <c r="V13" t="n">
-        <v>647.0144047848353</v>
+        <v>487.0979145294942</v>
       </c>
       <c r="W13" t="n">
-        <v>533.9789125622628</v>
+        <v>200.9415130468934</v>
       </c>
       <c r="X13" t="n">
-        <v>475.8473577176671</v>
+        <v>82.87587874571818</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.9331081699727</v>
+        <v>33.9616291980237</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>444.3907831575196</v>
+        <v>617.6203679841663</v>
       </c>
       <c r="C14" t="n">
-        <v>235.5779337503553</v>
+        <v>617.6203679841663</v>
       </c>
       <c r="D14" t="n">
-        <v>235.5779337503553</v>
+        <v>417.9173124714184</v>
       </c>
       <c r="E14" t="n">
-        <v>235.5779337503553</v>
+        <v>417.9173124714184</v>
       </c>
       <c r="F14" t="n">
-        <v>235.5779337503553</v>
+        <v>176.8870310416172</v>
       </c>
       <c r="G14" t="n">
-        <v>23.52716977367231</v>
+        <v>176.8870310416172</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J14" t="n">
-        <v>23.52716977367231</v>
+        <v>147.0265863185274</v>
       </c>
       <c r="K14" t="n">
-        <v>314.6758957228672</v>
+        <v>438.1753122677221</v>
       </c>
       <c r="L14" t="n">
-        <v>434.1018702361339</v>
+        <v>729.3240382169167</v>
       </c>
       <c r="M14" t="n">
-        <v>434.1018702361339</v>
+        <v>1020.472764166111</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2505961853287</v>
+        <v>1020.472764166111</v>
       </c>
       <c r="O14" t="n">
-        <v>1016.399322134524</v>
+        <v>1020.472764166111</v>
       </c>
       <c r="P14" t="n">
-        <v>1016.399322134524</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T14" t="n">
-        <v>1176.358488683616</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="U14" t="n">
-        <v>1094.643590798122</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="V14" t="n">
-        <v>1094.643590798122</v>
+        <v>882.2573616009661</v>
       </c>
       <c r="W14" t="n">
-        <v>1094.643590798122</v>
+        <v>882.2573616009661</v>
       </c>
       <c r="X14" t="n">
-        <v>885.7343595796438</v>
+        <v>882.2573616009661</v>
       </c>
       <c r="Y14" t="n">
-        <v>665.3134134155102</v>
+        <v>838.542998242157</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>383.356840810472</v>
+        <v>158.2209678237979</v>
       </c>
       <c r="C15" t="n">
-        <v>383.356840810472</v>
+        <v>158.2209678237979</v>
       </c>
       <c r="D15" t="n">
-        <v>383.356840810472</v>
+        <v>158.2209678237979</v>
       </c>
       <c r="E15" t="n">
-        <v>383.356840810472</v>
+        <v>158.2209678237979</v>
       </c>
       <c r="F15" t="n">
-        <v>248.6630427603464</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G15" t="n">
-        <v>120.2657981141175</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H15" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J15" t="n">
-        <v>23.52716977367231</v>
+        <v>112.9298515602899</v>
       </c>
       <c r="K15" t="n">
-        <v>23.52716977367231</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="L15" t="n">
-        <v>302.9123108360311</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="M15" t="n">
-        <v>594.061036785226</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="N15" t="n">
-        <v>885.2097627344208</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="O15" t="n">
-        <v>1176.358488683616</v>
+        <v>685.9951411890702</v>
       </c>
       <c r="P15" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382649</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R15" t="n">
-        <v>1137.141107753857</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S15" t="n">
-        <v>1137.141107753857</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T15" t="n">
-        <v>1122.912104621612</v>
+        <v>989.0085762913419</v>
       </c>
       <c r="U15" t="n">
-        <v>1077.560014593799</v>
+        <v>770.5355770034998</v>
       </c>
       <c r="V15" t="n">
-        <v>849.1643920421327</v>
+        <v>715.2608637118623</v>
       </c>
       <c r="W15" t="n">
-        <v>607.8485232754427</v>
+        <v>647.0659042052008</v>
       </c>
       <c r="X15" t="n">
-        <v>575.8781671608932</v>
+        <v>510.16173695548</v>
       </c>
       <c r="Y15" t="n">
-        <v>383.356840810472</v>
+        <v>317.6404106050588</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.46124923025195</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C16" t="n">
-        <v>83.46124923025195</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D16" t="n">
-        <v>83.46124923025195</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E16" t="n">
-        <v>83.46124923025195</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F16" t="n">
-        <v>83.46124923025195</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G16" t="n">
-        <v>63.95007511600378</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H16" t="n">
-        <v>63.95007511600378</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I16" t="n">
-        <v>63.95007511600378</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K16" t="n">
-        <v>88.75452017135983</v>
+        <v>88.75452017135986</v>
       </c>
       <c r="L16" t="n">
-        <v>229.8283602936759</v>
+        <v>229.828360293676</v>
       </c>
       <c r="M16" t="n">
-        <v>390.4883917441603</v>
+        <v>390.4883917441604</v>
       </c>
       <c r="N16" t="n">
-        <v>550.5627442088382</v>
+        <v>550.5627442088385</v>
       </c>
       <c r="O16" t="n">
-        <v>687.4987641731923</v>
+        <v>687.4987641731925</v>
       </c>
       <c r="P16" t="n">
-        <v>783.3870097116665</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="Q16" t="n">
-        <v>783.3870097116665</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="R16" t="n">
-        <v>783.3870097116665</v>
+        <v>783.3870097116667</v>
       </c>
       <c r="S16" t="n">
-        <v>747.6379425175686</v>
+        <v>687.7038630609891</v>
       </c>
       <c r="T16" t="n">
-        <v>688.7664919614697</v>
+        <v>628.8324125048902</v>
       </c>
       <c r="U16" t="n">
-        <v>574.7123097110431</v>
+        <v>514.7782302544636</v>
       </c>
       <c r="V16" t="n">
-        <v>487.0979145294942</v>
+        <v>254.0429258128862</v>
       </c>
       <c r="W16" t="n">
-        <v>200.9415130468934</v>
+        <v>141.0074335903138</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8099582022977</v>
+        <v>82.87587874571804</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.89570865460325</v>
+        <v>33.96162919802363</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340315</v>
+        <v>680.8463388340317</v>
       </c>
       <c r="C17" t="n">
-        <v>573.6360981303511</v>
+        <v>573.6360981303515</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210869</v>
+        <v>475.5356513210875</v>
       </c>
       <c r="E17" t="n">
-        <v>355.473449390706</v>
+        <v>355.4734493907069</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643885</v>
+        <v>216.0457766643897</v>
       </c>
       <c r="G17" t="n">
-        <v>75.28442233813345</v>
+        <v>75.28442233813325</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J17" t="n">
         <v>147.0265863185274</v>
       </c>
       <c r="K17" t="n">
-        <v>438.1753122677222</v>
+        <v>438.1753122677221</v>
       </c>
       <c r="L17" t="n">
-        <v>438.1753122677222</v>
+        <v>438.1753122677221</v>
       </c>
       <c r="M17" t="n">
-        <v>438.1753122677222</v>
+        <v>729.3240382169167</v>
       </c>
       <c r="N17" t="n">
-        <v>438.1753122677222</v>
+        <v>729.3240382169167</v>
       </c>
       <c r="O17" t="n">
-        <v>725.2505961853287</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="P17" t="n">
-        <v>1016.399322134524</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V17" t="n">
         <v>1114.102732543069</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>162.3658067834602</v>
+        <v>444.4789021663922</v>
       </c>
       <c r="C18" t="n">
-        <v>162.3658067834602</v>
+        <v>444.4789021663922</v>
       </c>
       <c r="D18" t="n">
-        <v>23.52716977367231</v>
+        <v>305.6402651566043</v>
       </c>
       <c r="E18" t="n">
-        <v>23.52716977367231</v>
+        <v>305.6402651566043</v>
       </c>
       <c r="F18" t="n">
-        <v>23.52716977367231</v>
+        <v>305.6402651566043</v>
       </c>
       <c r="G18" t="n">
-        <v>23.52716977367231</v>
+        <v>177.2430205103754</v>
       </c>
       <c r="H18" t="n">
-        <v>23.52716977367231</v>
+        <v>80.50439216993021</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J18" t="n">
-        <v>114.4548830157154</v>
+        <v>114.4548830157153</v>
       </c>
       <c r="K18" t="n">
-        <v>396.371446695301</v>
+        <v>396.3714466953009</v>
       </c>
       <c r="L18" t="n">
-        <v>396.371446695301</v>
+        <v>687.5201726444956</v>
       </c>
       <c r="M18" t="n">
-        <v>685.9951411890708</v>
+        <v>687.5201726444956</v>
       </c>
       <c r="N18" t="n">
-        <v>685.9951411890708</v>
+        <v>687.5201726444956</v>
       </c>
       <c r="O18" t="n">
-        <v>685.9951411890708</v>
+        <v>978.6688985936903</v>
       </c>
       <c r="P18" t="n">
-        <v>977.1438671382656</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R18" t="n">
-        <v>1148.525110146923</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S18" t="n">
-        <v>1148.525110146923</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="T18" t="n">
-        <v>961.1751977546504</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="U18" t="n">
-        <v>742.7021984668083</v>
+        <v>918.6681084660141</v>
       </c>
       <c r="V18" t="n">
-        <v>514.3065759151423</v>
+        <v>690.2724859143481</v>
       </c>
       <c r="W18" t="n">
-        <v>514.3065759151423</v>
+        <v>637.0002285168134</v>
       </c>
       <c r="X18" t="n">
-        <v>514.3065759151423</v>
+        <v>637.0002285168134</v>
       </c>
       <c r="Y18" t="n">
-        <v>321.7852495647211</v>
+        <v>444.4789021663922</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.0078247478952</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C19" t="n">
-        <v>176.0078247478952</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D19" t="n">
-        <v>176.0078247478952</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E19" t="n">
-        <v>176.0078247478952</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F19" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G19" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H19" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I19" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135983</v>
+        <v>88.75452017135981</v>
       </c>
       <c r="L19" t="n">
         <v>229.8283602936759</v>
@@ -5698,25 +5698,25 @@
         <v>783.3870097116665</v>
       </c>
       <c r="S19" t="n">
-        <v>783.3870097116665</v>
+        <v>574.5170332575401</v>
       </c>
       <c r="T19" t="n">
-        <v>783.3870097116665</v>
+        <v>574.5170332575401</v>
       </c>
       <c r="U19" t="n">
-        <v>496.2119182012114</v>
+        <v>287.3419417470851</v>
       </c>
       <c r="V19" t="n">
-        <v>496.2119182012114</v>
+        <v>34.96005329276075</v>
       </c>
       <c r="W19" t="n">
-        <v>210.0555167186105</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="X19" t="n">
-        <v>176.0078247478952</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="Y19" t="n">
-        <v>176.0078247478952</v>
+        <v>23.5271697736723</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340315</v>
+        <v>680.8463388340317</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303511</v>
+        <v>573.6360981303515</v>
       </c>
       <c r="D20" t="n">
-        <v>475.535651321087</v>
+        <v>475.5356513210875</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907061</v>
+        <v>355.4734493907068</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643887</v>
+        <v>216.0457766643896</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813345</v>
+        <v>75.28442233813325</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0265863185274</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K20" t="n">
-        <v>438.1753122677222</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L20" t="n">
-        <v>438.1753122677222</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="M20" t="n">
-        <v>438.1753122677222</v>
+        <v>314.675895722867</v>
       </c>
       <c r="N20" t="n">
-        <v>438.1753122677222</v>
+        <v>594.0610367852257</v>
       </c>
       <c r="O20" t="n">
-        <v>725.2505961853287</v>
+        <v>885.2097627344203</v>
       </c>
       <c r="P20" t="n">
-        <v>1016.399322134524</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V20" t="n">
         <v>1114.102732543069</v>
@@ -5795,7 +5795,7 @@
         <v>918.984697849188</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885384</v>
+        <v>800.1663603885385</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>395.7519383929705</v>
+        <v>281.9694708731628</v>
       </c>
       <c r="C21" t="n">
-        <v>395.7519383929705</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="D21" t="n">
-        <v>286.6182124700268</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="E21" t="n">
-        <v>286.6182124700268</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="F21" t="n">
-        <v>151.9244144199012</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="G21" t="n">
-        <v>23.52716977367231</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="H21" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J21" t="n">
-        <v>114.4548830157154</v>
+        <v>114.4548830157153</v>
       </c>
       <c r="K21" t="n">
-        <v>394.8464152398759</v>
+        <v>114.4548830157153</v>
       </c>
       <c r="L21" t="n">
-        <v>685.9951411890708</v>
+        <v>114.4548830157153</v>
       </c>
       <c r="M21" t="n">
-        <v>685.9951411890708</v>
+        <v>405.60360896491</v>
       </c>
       <c r="N21" t="n">
-        <v>977.1438671382656</v>
+        <v>405.60360896491</v>
       </c>
       <c r="O21" t="n">
-        <v>977.1438671382656</v>
+        <v>696.7523349141047</v>
       </c>
       <c r="P21" t="n">
-        <v>977.1438671382656</v>
+        <v>987.9010608632993</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R21" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S21" t="n">
-        <v>1176.358488683616</v>
+        <v>1127.025239442173</v>
       </c>
       <c r="T21" t="n">
-        <v>989.0085762913426</v>
+        <v>939.6753270499003</v>
       </c>
       <c r="U21" t="n">
-        <v>989.0085762913426</v>
+        <v>721.2023277620582</v>
       </c>
       <c r="V21" t="n">
-        <v>989.0085762913426</v>
+        <v>721.2023277620582</v>
       </c>
       <c r="W21" t="n">
-        <v>747.6927075246526</v>
+        <v>479.8864589953682</v>
       </c>
       <c r="X21" t="n">
-        <v>747.6927075246526</v>
+        <v>281.9694708731628</v>
       </c>
       <c r="Y21" t="n">
-        <v>555.1713811742314</v>
+        <v>281.9694708731628</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>512.9674525445572</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C22" t="n">
-        <v>512.9674525445572</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D22" t="n">
-        <v>512.9674525445572</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E22" t="n">
-        <v>360.958438305876</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F22" t="n">
-        <v>208.4777833316531</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G22" t="n">
-        <v>39.8357480409953</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H22" t="n">
-        <v>39.8357480409953</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I22" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135983</v>
+        <v>88.75452017135981</v>
       </c>
       <c r="L22" t="n">
         <v>229.8283602936759</v>
@@ -5932,28 +5932,28 @@
         <v>768.1043737152128</v>
       </c>
       <c r="R22" t="n">
-        <v>768.1043737152128</v>
+        <v>631.0695940297749</v>
       </c>
       <c r="S22" t="n">
-        <v>768.1043737152128</v>
+        <v>422.1996175756485</v>
       </c>
       <c r="T22" t="n">
-        <v>768.1043737152128</v>
+        <v>422.1996175756485</v>
       </c>
       <c r="U22" t="n">
-        <v>755.65280016827</v>
+        <v>409.7480440287059</v>
       </c>
       <c r="V22" t="n">
-        <v>755.65280016827</v>
+        <v>149.0127395871285</v>
       </c>
       <c r="W22" t="n">
-        <v>744.2199166491814</v>
+        <v>137.57985606804</v>
       </c>
       <c r="X22" t="n">
-        <v>512.9674525445572</v>
+        <v>137.57985606804</v>
       </c>
       <c r="Y22" t="n">
-        <v>512.9674525445572</v>
+        <v>23.5271697736723</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340316</v>
+        <v>680.8463388340303</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303512</v>
+        <v>573.6360981303502</v>
       </c>
       <c r="D23" t="n">
-        <v>475.5356513210872</v>
+        <v>475.5356513210862</v>
       </c>
       <c r="E23" t="n">
-        <v>355.473449390706</v>
+        <v>355.4734493907055</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643887</v>
+        <v>216.0457766643882</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813344</v>
+        <v>75.28442233813327</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J23" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K23" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L23" t="n">
-        <v>314.6758957228671</v>
+        <v>314.675895722867</v>
       </c>
       <c r="M23" t="n">
-        <v>605.8246216720619</v>
+        <v>605.8246216720617</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2505961853285</v>
+        <v>885.2097627344203</v>
       </c>
       <c r="O23" t="n">
-        <v>725.2505961853285</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="P23" t="n">
-        <v>1016.399322134523</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q23" t="n">
         <v>1176.358488683615</v>
@@ -6020,19 +6020,19 @@
         <v>1176.358488683615</v>
       </c>
       <c r="U23" t="n">
-        <v>1176.358488683615</v>
+        <v>1176.358488683614</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.102732543069</v>
+        <v>1114.102732543067</v>
       </c>
       <c r="W23" t="n">
-        <v>1026.291320364183</v>
+        <v>1026.291320364181</v>
       </c>
       <c r="X23" t="n">
-        <v>918.9846978491883</v>
+        <v>918.9846978491867</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.1663603885385</v>
+        <v>800.1663603885371</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>702.5299158762051</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="C24" t="n">
-        <v>540.8262431171598</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="D24" t="n">
-        <v>401.9876061073719</v>
+        <v>170.5551797168011</v>
       </c>
       <c r="E24" t="n">
-        <v>254.9595961642431</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F24" t="n">
-        <v>120.2657981141175</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G24" t="n">
-        <v>120.2657981141175</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H24" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J24" t="n">
-        <v>114.4548830157154</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K24" t="n">
-        <v>396.371446695301</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L24" t="n">
-        <v>687.5201726444957</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="M24" t="n">
-        <v>687.5201726444957</v>
+        <v>314.675895722867</v>
       </c>
       <c r="N24" t="n">
-        <v>978.6688985936905</v>
+        <v>605.8246216720617</v>
       </c>
       <c r="O24" t="n">
-        <v>1176.358488683615</v>
+        <v>885.2097627344203</v>
       </c>
       <c r="P24" t="n">
         <v>1176.358488683615</v>
@@ -6090,28 +6090,28 @@
         <v>1176.358488683615</v>
       </c>
       <c r="R24" t="n">
-        <v>1137.141107753857</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S24" t="n">
-        <v>1137.141107753857</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T24" t="n">
-        <v>1103.265227424156</v>
+        <v>989.0085762913419</v>
       </c>
       <c r="U24" t="n">
-        <v>1103.265227424156</v>
+        <v>770.5355770034998</v>
       </c>
       <c r="V24" t="n">
-        <v>1103.265227424156</v>
+        <v>542.1399544518338</v>
       </c>
       <c r="W24" t="n">
-        <v>861.9493586574661</v>
+        <v>363.0765060672222</v>
       </c>
       <c r="X24" t="n">
-        <v>861.9493586574661</v>
+        <v>363.0765060672222</v>
       </c>
       <c r="Y24" t="n">
-        <v>861.9493586574661</v>
+        <v>170.5551797168011</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>332.911345896082</v>
+        <v>328.6080771845908</v>
       </c>
       <c r="C25" t="n">
-        <v>332.911345896082</v>
+        <v>328.6080771845908</v>
       </c>
       <c r="D25" t="n">
-        <v>332.911345896082</v>
+        <v>175.5361840123535</v>
       </c>
       <c r="E25" t="n">
-        <v>332.911345896082</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F25" t="n">
-        <v>180.4306909218591</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G25" t="n">
-        <v>180.4306909218591</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H25" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367231</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K25" t="n">
-        <v>88.75452017135983</v>
+        <v>88.75452017135981</v>
       </c>
       <c r="L25" t="n">
         <v>229.8283602936759</v>
@@ -6169,28 +6169,28 @@
         <v>783.3870097116665</v>
       </c>
       <c r="R25" t="n">
-        <v>783.3870097116665</v>
+        <v>646.3522300262285</v>
       </c>
       <c r="S25" t="n">
-        <v>783.3870097116665</v>
+        <v>646.3522300262285</v>
       </c>
       <c r="T25" t="n">
-        <v>783.3870097116665</v>
+        <v>414.3598702101011</v>
       </c>
       <c r="U25" t="n">
-        <v>770.9354361647237</v>
+        <v>401.9082966631585</v>
       </c>
       <c r="V25" t="n">
-        <v>527.8995980995504</v>
+        <v>340.0409607036792</v>
       </c>
       <c r="W25" t="n">
-        <v>516.4667145804618</v>
+        <v>328.6080771845908</v>
       </c>
       <c r="X25" t="n">
-        <v>516.4667145804618</v>
+        <v>328.6080771845908</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.4667145804618</v>
+        <v>328.6080771845908</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.772001306257</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.853217023151</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246548</v>
+        <v>967.2734811246537</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189117</v>
+        <v>655.1372648189113</v>
       </c>
       <c r="G26" t="n">
-        <v>341.667366913231</v>
+        <v>341.6673669132307</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2015707693439</v>
+        <v>117.2015707693438</v>
       </c>
       <c r="I26" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J26" t="n">
-        <v>293.7520416570868</v>
+        <v>293.7520416570869</v>
       </c>
       <c r="K26" t="n">
-        <v>711.0637474076111</v>
+        <v>711.0637474076112</v>
       </c>
       <c r="L26" t="n">
         <v>1254.690622475248</v>
       </c>
       <c r="M26" t="n">
-        <v>1854.462361416258</v>
+        <v>1794.946581637741</v>
       </c>
       <c r="N26" t="n">
-        <v>2381.534566131605</v>
+        <v>2381.534566131604</v>
       </c>
       <c r="O26" t="n">
-        <v>2888.761969742974</v>
+        <v>2888.761969742973</v>
       </c>
       <c r="P26" t="n">
-        <v>3304.161461367062</v>
+        <v>3204.176584973217</v>
       </c>
       <c r="Q26" t="n">
-        <v>3464.120627916154</v>
+        <v>3464.120627916153</v>
       </c>
       <c r="R26" t="n">
-        <v>3513.387435919412</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.28150104347</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T26" t="n">
-        <v>3322.647701814404</v>
+        <v>3322.647701814402</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.826869052968</v>
+        <v>3169.826869052967</v>
       </c>
       <c r="V26" t="n">
-        <v>2934.862569332996</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X26" t="n">
-        <v>2394.327447480264</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.800566440189</v>
+        <v>2102.800566440188</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>934.644961863408</v>
+        <v>934.6449618634077</v>
       </c>
       <c r="C27" t="n">
-        <v>772.9412891043627</v>
+        <v>772.9412891043625</v>
       </c>
       <c r="D27" t="n">
-        <v>634.1026520945748</v>
+        <v>634.1026520945745</v>
       </c>
       <c r="E27" t="n">
-        <v>487.0746421514459</v>
+        <v>487.0746421514458</v>
       </c>
       <c r="F27" t="n">
         <v>352.3808441013202</v>
@@ -6300,25 +6300,25 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J27" t="n">
-        <v>161.1954619604313</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="K27" t="n">
-        <v>443.1120256400168</v>
+        <v>352.1843123979738</v>
       </c>
       <c r="L27" t="n">
-        <v>443.1120256400168</v>
+        <v>788.499399289733</v>
       </c>
       <c r="M27" t="n">
-        <v>917.443273781186</v>
+        <v>917.4432737811856</v>
       </c>
       <c r="N27" t="n">
-        <v>1513.148446029987</v>
+        <v>1513.148446029986</v>
       </c>
       <c r="O27" t="n">
-        <v>1982.594066618683</v>
+        <v>1982.594066618682</v>
       </c>
       <c r="P27" t="n">
         <v>2346.686446011073</v>
@@ -6330,10 +6330,10 @@
         <v>2506.683686626664</v>
       </c>
       <c r="S27" t="n">
-        <v>2360.037122115767</v>
+        <v>2360.037122115766</v>
       </c>
       <c r="T27" t="n">
-        <v>2172.687209723494</v>
+        <v>2172.687209723493</v>
       </c>
       <c r="U27" t="n">
         <v>1954.214210435651</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107162</v>
+        <v>444.7374632107156</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564833</v>
+        <v>377.1364680564828</v>
       </c>
       <c r="D28" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683324</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137385</v>
+        <v>276.0855094137381</v>
       </c>
       <c r="F28" t="n">
-        <v>225.6198288236024</v>
+        <v>225.6198288236021</v>
       </c>
       <c r="G28" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170312</v>
       </c>
       <c r="H28" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529313</v>
       </c>
       <c r="I28" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J28" t="n">
-        <v>130.6341355862126</v>
+        <v>130.6341355862112</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777436</v>
+        <v>295.8463623777423</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939031</v>
+        <v>536.9050788939019</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5499867382312</v>
+        <v>797.5499867382298</v>
       </c>
       <c r="N28" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596751</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954949</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887266</v>
       </c>
       <c r="Q28" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740986</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439635</v>
       </c>
       <c r="S28" t="n">
-        <v>1433.534791369596</v>
+        <v>1433.534791369595</v>
       </c>
       <c r="T28" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U28" t="n">
-        <v>1118.397288811187</v>
+        <v>1118.397288811186</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6769587536967</v>
+        <v>959.6769587536959</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551827</v>
+        <v>775.5355316551819</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346453</v>
+        <v>646.2980419346445</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110092</v>
+        <v>526.2778575110085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306257</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.853217023151</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246548</v>
+        <v>967.2734811246538</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1372648189121</v>
+        <v>655.137264818911</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6673669132315</v>
+        <v>341.6673669132305</v>
       </c>
       <c r="H29" t="n">
         <v>117.2015707693439</v>
       </c>
       <c r="I29" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J29" t="n">
-        <v>293.7520416570868</v>
+        <v>283.5030698818276</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5479676290956</v>
+        <v>600.8298992385085</v>
       </c>
       <c r="L29" t="n">
-        <v>1095.189966302889</v>
+        <v>1144.456774306146</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.961705243899</v>
+        <v>1744.228513247155</v>
       </c>
       <c r="N29" t="n">
-        <v>2281.549689737761</v>
+        <v>2330.816497741017</v>
       </c>
       <c r="O29" t="n">
-        <v>2788.77709334913</v>
+        <v>2838.043901352386</v>
       </c>
       <c r="P29" t="n">
-        <v>3204.176584973218</v>
+        <v>3253.443392976475</v>
       </c>
       <c r="Q29" t="n">
-        <v>3464.120627916154</v>
+        <v>3513.387435919411</v>
       </c>
       <c r="R29" t="n">
         <v>3513.387435919411</v>
       </c>
       <c r="S29" t="n">
-        <v>3442.28150104347</v>
+        <v>3442.281501043469</v>
       </c>
       <c r="T29" t="n">
-        <v>3322.647701814404</v>
+        <v>3322.647701814402</v>
       </c>
       <c r="U29" t="n">
-        <v>3169.826869052968</v>
+        <v>3169.826869052967</v>
       </c>
       <c r="V29" t="n">
-        <v>2934.862569332996</v>
+        <v>2934.862569332995</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.342613574684</v>
+        <v>2674.342613574683</v>
       </c>
       <c r="X29" t="n">
-        <v>2394.327447480264</v>
+        <v>2394.327447480263</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.800566440189</v>
+        <v>2102.800566440188</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I30" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J30" t="n">
-        <v>161.1954619604313</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="K30" t="n">
-        <v>443.1120256400168</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="L30" t="n">
-        <v>819.5932527219047</v>
+        <v>506.5828356101473</v>
       </c>
       <c r="M30" t="n">
-        <v>1386.888894369882</v>
+        <v>1073.878477258124</v>
       </c>
       <c r="N30" t="n">
-        <v>1982.594066618683</v>
+        <v>1513.148446029987</v>
       </c>
       <c r="O30" t="n">
         <v>1982.594066618683</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>444.7374632107161</v>
+        <v>444.7374632107159</v>
       </c>
       <c r="C31" t="n">
-        <v>377.1364680564832</v>
+        <v>377.136468056483</v>
       </c>
       <c r="D31" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683325</v>
       </c>
       <c r="E31" t="n">
-        <v>276.0855094137384</v>
+        <v>276.0855094137382</v>
       </c>
       <c r="F31" t="n">
         <v>225.6198288236023</v>
@@ -6613,10 +6613,10 @@
         <v>158.9927679170313</v>
       </c>
       <c r="H31" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529313</v>
       </c>
       <c r="I31" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J31" t="n">
         <v>130.6341355862126</v>
@@ -6625,7 +6625,7 @@
         <v>295.8463623777436</v>
       </c>
       <c r="L31" t="n">
-        <v>536.9050788939031</v>
+        <v>536.9050788939032</v>
       </c>
       <c r="M31" t="n">
         <v>797.5499867382309</v>
@@ -6649,22 +6649,22 @@
         <v>1433.534791369596</v>
       </c>
       <c r="T31" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U31" t="n">
         <v>1118.397288811187</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536968</v>
+        <v>959.6769587536963</v>
       </c>
       <c r="W31" t="n">
-        <v>775.5355316551827</v>
+        <v>775.5355316551824</v>
       </c>
       <c r="X31" t="n">
-        <v>646.2980419346452</v>
+        <v>646.298041934645</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.2778575110091</v>
+        <v>526.2778575110088</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1530.85321702315</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2734811246539</v>
+        <v>967.2734811246542</v>
       </c>
       <c r="F32" t="n">
-        <v>655.137264818911</v>
+        <v>655.1372648189113</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6673669132305</v>
+        <v>341.6673669132306</v>
       </c>
       <c r="H32" t="n">
         <v>117.2015707693439</v>
       </c>
       <c r="I32" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J32" t="n">
-        <v>293.7520416570868</v>
+        <v>293.7520416570867</v>
       </c>
       <c r="K32" t="n">
-        <v>611.0788710137676</v>
+        <v>711.063747407611</v>
       </c>
       <c r="L32" t="n">
-        <v>1144.456774306147</v>
+        <v>1254.690622475248</v>
       </c>
       <c r="M32" t="n">
-        <v>1744.228513247156</v>
+        <v>1754.477485022414</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.816497741018</v>
+        <v>2341.065469516276</v>
       </c>
       <c r="O32" t="n">
-        <v>2838.043901352387</v>
+        <v>2848.292873127645</v>
       </c>
       <c r="P32" t="n">
-        <v>3253.443392976475</v>
+        <v>3263.692364751733</v>
       </c>
       <c r="Q32" t="n">
-        <v>3513.387435919411</v>
+        <v>3464.120627916154</v>
       </c>
       <c r="R32" t="n">
         <v>3513.387435919411</v>
       </c>
       <c r="S32" t="n">
-        <v>3442.281501043469</v>
+        <v>3442.28150104347</v>
       </c>
       <c r="T32" t="n">
         <v>3322.647701814403</v>
       </c>
       <c r="U32" t="n">
-        <v>3169.826869052967</v>
+        <v>3169.826869052968</v>
       </c>
       <c r="V32" t="n">
-        <v>2934.862569332995</v>
+        <v>2934.862569332996</v>
       </c>
       <c r="W32" t="n">
-        <v>2674.342613574683</v>
+        <v>2674.342613574684</v>
       </c>
       <c r="X32" t="n">
-        <v>2394.327447480263</v>
+        <v>2394.327447480264</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.800566440188</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>934.644961863408</v>
+        <v>934.6449618634077</v>
       </c>
       <c r="C33" t="n">
-        <v>772.9412891043627</v>
+        <v>772.9412891043625</v>
       </c>
       <c r="D33" t="n">
-        <v>634.1026520945748</v>
+        <v>634.1026520945745</v>
       </c>
       <c r="E33" t="n">
-        <v>487.0746421514459</v>
+        <v>487.0746421514458</v>
       </c>
       <c r="F33" t="n">
         <v>352.3808441013202</v>
@@ -6774,28 +6774,28 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I33" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J33" t="n">
-        <v>161.1954619604313</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1954619604313</v>
+        <v>352.1843123979738</v>
       </c>
       <c r="L33" t="n">
-        <v>597.5105488521904</v>
+        <v>788.499399289733</v>
       </c>
       <c r="M33" t="n">
-        <v>1164.806190500167</v>
+        <v>1355.79504093771</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.511362748968</v>
+        <v>1951.500213186511</v>
       </c>
       <c r="O33" t="n">
-        <v>2229.956983337664</v>
+        <v>2181.808688164032</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.686446011073</v>
+        <v>2545.901067556423</v>
       </c>
       <c r="Q33" t="n">
         <v>2545.901067556423</v>
@@ -6804,10 +6804,10 @@
         <v>2506.683686626664</v>
       </c>
       <c r="S33" t="n">
-        <v>2360.037122115767</v>
+        <v>2360.037122115766</v>
       </c>
       <c r="T33" t="n">
-        <v>2172.687209723494</v>
+        <v>2172.687209723493</v>
       </c>
       <c r="U33" t="n">
         <v>1954.214210435651</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7374632107161</v>
+        <v>444.7374632107163</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564832</v>
+        <v>377.1364680564834</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0795492683328</v>
+        <v>326.0795492683329</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0855094137384</v>
+        <v>276.0855094137385</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236023</v>
+        <v>225.6198288236024</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170313</v>
+        <v>158.9927679170314</v>
       </c>
       <c r="H34" t="n">
         <v>104.1042211529314</v>
       </c>
       <c r="I34" t="n">
-        <v>70.26774871838823</v>
+        <v>70.26774871838822</v>
       </c>
       <c r="J34" t="n">
         <v>130.6341355862126</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8463623777436</v>
+        <v>295.8463623777435</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939032</v>
+        <v>536.9050788939031</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382312</v>
+        <v>797.5499867382307</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954949</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740986</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439635</v>
       </c>
       <c r="S34" t="n">
         <v>1433.534791369596</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937555</v>
       </c>
       <c r="U34" t="n">
-        <v>1118.397288811187</v>
+        <v>1118.397288811188</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536965</v>
+        <v>959.6769587536969</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551825</v>
+        <v>775.5355316551828</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2980419346452</v>
+        <v>646.2980419346455</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2778575110091</v>
+        <v>526.2778575110094</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>1262.71490395099</v>
       </c>
       <c r="C35" t="n">
-        <v>1062.395470589656</v>
+        <v>1062.395470589657</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227395</v>
+        <v>871.1858311227402</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347062</v>
+        <v>658.0144365347066</v>
       </c>
       <c r="F35" t="n">
-        <v>425.4775711507364</v>
+        <v>425.4775711507367</v>
       </c>
       <c r="G35" t="n">
-        <v>191.6070241668294</v>
+        <v>191.6070241668297</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="J35" t="n">
-        <v>170.2399954895709</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="K35" t="n">
-        <v>487.5668248462517</v>
+        <v>364.0674083013967</v>
       </c>
       <c r="L35" t="n">
-        <v>931.2088235200454</v>
+        <v>807.7094069751904</v>
       </c>
       <c r="M35" t="n">
-        <v>967.80953013891</v>
+        <v>1307.496269522356</v>
       </c>
       <c r="N35" t="n">
-        <v>1454.412638238929</v>
+        <v>1794.099377622375</v>
       </c>
       <c r="O35" t="n">
-        <v>1861.655165456454</v>
+        <v>1861.655165456458</v>
       </c>
       <c r="P35" t="n">
-        <v>2177.069780686699</v>
+        <v>2177.069780686702</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="T35" t="n">
-        <v>2296.994498928498</v>
+        <v>2296.9944989285</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.773017088835</v>
+        <v>2223.773017088837</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.408068290637</v>
+        <v>2068.408068290638</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.487463454098</v>
+        <v>1887.487463454099</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281451</v>
+        <v>1687.071648281452</v>
       </c>
       <c r="Y35" t="n">
         <v>1475.144118163149</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>854.1405696934775</v>
+        <v>757.4019413530325</v>
       </c>
       <c r="C36" t="n">
-        <v>692.4368969344322</v>
+        <v>595.6982685939872</v>
       </c>
       <c r="D36" t="n">
-        <v>553.5982599246443</v>
+        <v>456.8596315841992</v>
       </c>
       <c r="E36" t="n">
-        <v>406.5702499815155</v>
+        <v>309.8316216410705</v>
       </c>
       <c r="F36" t="n">
-        <v>271.8764519313899</v>
+        <v>175.1378235909448</v>
       </c>
       <c r="G36" t="n">
-        <v>143.479207285161</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="H36" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="J36" t="n">
-        <v>137.6682921867589</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="K36" t="n">
-        <v>419.5848558663445</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="L36" t="n">
-        <v>855.8999427581036</v>
+        <v>158.5660196205221</v>
       </c>
       <c r="M36" t="n">
-        <v>1423.195584406081</v>
+        <v>725.861661268499</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.610248846939</v>
+        <v>1304.276325709358</v>
       </c>
       <c r="O36" t="n">
-        <v>2001.610248846939</v>
+        <v>1773.721946298054</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.028947235791</v>
+        <v>2137.814325690445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="R36" t="n">
-        <v>2337.028947235791</v>
+        <v>2297.811566306036</v>
       </c>
       <c r="S36" t="n">
-        <v>2279.532729945836</v>
+        <v>2182.794101605391</v>
       </c>
       <c r="T36" t="n">
-        <v>2092.182817553563</v>
+        <v>1995.444189213118</v>
       </c>
       <c r="U36" t="n">
-        <v>1873.709818265721</v>
+        <v>1776.971189925276</v>
       </c>
       <c r="V36" t="n">
-        <v>1645.314195714055</v>
+        <v>1548.57556737361</v>
       </c>
       <c r="W36" t="n">
-        <v>1403.998326947365</v>
+        <v>1307.25969860692</v>
       </c>
       <c r="X36" t="n">
-        <v>1206.081338825159</v>
+        <v>1109.342710484714</v>
       </c>
       <c r="Y36" t="n">
-        <v>1013.560012474738</v>
+        <v>916.8213841342933</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.1285707221143</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1285707221143</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="D37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="E37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="F37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="G37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471589</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424034</v>
@@ -7102,43 +7102,43 @@
         <v>253.0417694647195</v>
       </c>
       <c r="M37" t="n">
-        <v>413.7018009152038</v>
+        <v>413.7018009152039</v>
       </c>
       <c r="N37" t="n">
-        <v>573.7761533798817</v>
+        <v>573.7761533798819</v>
       </c>
       <c r="O37" t="n">
-        <v>710.7121733442357</v>
+        <v>710.7121733442359</v>
       </c>
       <c r="P37" t="n">
-        <v>806.6004188827098</v>
+        <v>806.6004188827101</v>
       </c>
       <c r="Q37" t="n">
-        <v>806.6004188827098</v>
+        <v>806.6004188827101</v>
       </c>
       <c r="R37" t="n">
-        <v>806.6004188827098</v>
+        <v>806.6004188827101</v>
       </c>
       <c r="S37" t="n">
-        <v>779.3447677344433</v>
+        <v>779.3447677344434</v>
       </c>
       <c r="T37" t="n">
-        <v>547.3524079183159</v>
+        <v>609.5787414467782</v>
       </c>
       <c r="U37" t="n">
-        <v>441.7916417137205</v>
+        <v>504.0179752421827</v>
       </c>
       <c r="V37" t="n">
-        <v>362.670662578003</v>
+        <v>424.8969961064649</v>
       </c>
       <c r="W37" t="n">
-        <v>258.1285864012619</v>
+        <v>320.3549199297237</v>
       </c>
       <c r="X37" t="n">
-        <v>208.4904476024975</v>
+        <v>270.716781130959</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.0696141006343</v>
+        <v>48.68162232323612</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1262.714903950989</v>
+        <v>1262.714903950992</v>
       </c>
       <c r="C38" t="n">
-        <v>1062.395470589656</v>
+        <v>1062.395470589659</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227395</v>
+        <v>871.1858311227425</v>
       </c>
       <c r="E38" t="n">
-        <v>658.0144365347062</v>
+        <v>658.0144365347089</v>
       </c>
       <c r="F38" t="n">
-        <v>425.4775711507364</v>
+        <v>425.4775711507389</v>
       </c>
       <c r="G38" t="n">
-        <v>191.6070241668294</v>
+        <v>191.6070241668297</v>
       </c>
       <c r="H38" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="I38" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="J38" t="n">
-        <v>170.2399954895709</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="K38" t="n">
-        <v>170.2399954895709</v>
+        <v>364.0674083013968</v>
       </c>
       <c r="L38" t="n">
-        <v>613.8819941633647</v>
+        <v>807.7094069751904</v>
       </c>
       <c r="M38" t="n">
-        <v>1113.668856710531</v>
+        <v>1307.496269522356</v>
       </c>
       <c r="N38" t="n">
-        <v>1454.412638238929</v>
+        <v>1794.099377622375</v>
       </c>
       <c r="O38" t="n">
-        <v>1861.655165456454</v>
+        <v>1861.655165456459</v>
       </c>
       <c r="P38" t="n">
-        <v>2177.069780686699</v>
+        <v>2177.069780686704</v>
       </c>
       <c r="Q38" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="R38" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="S38" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.994498928497</v>
+        <v>2296.994498928502</v>
       </c>
       <c r="U38" t="n">
-        <v>2223.773017088835</v>
+        <v>2223.773017088839</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.408068290636</v>
+        <v>2068.408068290641</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.487463454097</v>
+        <v>1887.487463454101</v>
       </c>
       <c r="X38" t="n">
-        <v>1687.07164828145</v>
+        <v>1687.071648281454</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.144118163148</v>
+        <v>1475.144118163152</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>911.1177920897354</v>
+        <v>757.4019413530325</v>
       </c>
       <c r="C39" t="n">
-        <v>749.4141193306901</v>
+        <v>595.6982685939872</v>
       </c>
       <c r="D39" t="n">
-        <v>610.5754823209022</v>
+        <v>456.8596315841992</v>
       </c>
       <c r="E39" t="n">
-        <v>463.5474723777735</v>
+        <v>309.8316216410705</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8536743276478</v>
+        <v>175.1378235909448</v>
       </c>
       <c r="G39" t="n">
-        <v>200.4564296814189</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="H39" t="n">
-        <v>103.7178013409737</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="I39" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="J39" t="n">
         <v>137.6682921867589</v>
@@ -7257,46 +7257,46 @@
         <v>419.5848558663445</v>
       </c>
       <c r="L39" t="n">
-        <v>419.5848558663445</v>
+        <v>855.8999427581036</v>
       </c>
       <c r="M39" t="n">
-        <v>986.8804975143214</v>
+        <v>1304.27632570936</v>
       </c>
       <c r="N39" t="n">
-        <v>1565.29516195518</v>
+        <v>1304.27632570936</v>
       </c>
       <c r="O39" t="n">
-        <v>1773.721946298051</v>
+        <v>1773.721946298055</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.814325690441</v>
+        <v>2137.814325690446</v>
       </c>
       <c r="Q39" t="n">
-        <v>2337.028947235791</v>
+        <v>2337.028947235796</v>
       </c>
       <c r="R39" t="n">
-        <v>2337.028947235791</v>
+        <v>2297.811566306037</v>
       </c>
       <c r="S39" t="n">
-        <v>2336.509952342094</v>
+        <v>2151.165001795139</v>
       </c>
       <c r="T39" t="n">
-        <v>2149.160039949821</v>
+        <v>1963.815089402866</v>
       </c>
       <c r="U39" t="n">
-        <v>1930.687040661979</v>
+        <v>1745.342090115024</v>
       </c>
       <c r="V39" t="n">
-        <v>1702.291418110313</v>
+        <v>1548.57556737361</v>
       </c>
       <c r="W39" t="n">
-        <v>1460.975549343623</v>
+        <v>1307.25969860692</v>
       </c>
       <c r="X39" t="n">
-        <v>1263.058561221417</v>
+        <v>1109.342710484714</v>
       </c>
       <c r="Y39" t="n">
-        <v>1070.537234870996</v>
+        <v>916.8213841342933</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.7428960279746</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="C40" t="n">
-        <v>347.7428960279746</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="D40" t="n">
-        <v>194.6710028557373</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="E40" t="n">
-        <v>194.6710028557373</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="F40" t="n">
-        <v>194.6710028557373</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="G40" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="H40" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="I40" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="J40" t="n">
-        <v>46.74057894471583</v>
+        <v>46.74057894471592</v>
       </c>
       <c r="K40" t="n">
         <v>111.9679293424034</v>
       </c>
       <c r="L40" t="n">
-        <v>253.0417694647195</v>
+        <v>253.0417694647196</v>
       </c>
       <c r="M40" t="n">
-        <v>413.7018009152038</v>
+        <v>413.7018009152039</v>
       </c>
       <c r="N40" t="n">
-        <v>573.7761533798817</v>
+        <v>573.7761533798819</v>
       </c>
       <c r="O40" t="n">
-        <v>710.7121733442357</v>
+        <v>710.7121733442359</v>
       </c>
       <c r="P40" t="n">
-        <v>806.6004188827098</v>
+        <v>806.6004188827101</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.6004188827098</v>
+        <v>791.3177828862564</v>
       </c>
       <c r="R40" t="n">
-        <v>806.6004188827098</v>
+        <v>791.3177828862564</v>
       </c>
       <c r="S40" t="n">
-        <v>779.3447677344434</v>
+        <v>764.0621317379897</v>
       </c>
       <c r="T40" t="n">
-        <v>728.9667332241759</v>
+        <v>532.0697719218623</v>
       </c>
       <c r="U40" t="n">
-        <v>623.4059670195807</v>
+        <v>426.5090057172668</v>
       </c>
       <c r="V40" t="n">
-        <v>544.2849878838631</v>
+        <v>243.2826708006054</v>
       </c>
       <c r="W40" t="n">
-        <v>439.7429117071221</v>
+        <v>138.7405946238641</v>
       </c>
       <c r="X40" t="n">
-        <v>390.1047729083576</v>
+        <v>89.10245582509947</v>
       </c>
       <c r="Y40" t="n">
-        <v>349.6839394064946</v>
+        <v>48.68162232323615</v>
       </c>
     </row>
     <row r="41">
@@ -7391,55 +7391,55 @@
         <v>1064.566702132424</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849045</v>
+        <v>872.9446969849041</v>
       </c>
       <c r="E41" t="n">
-        <v>659.360936716268</v>
+        <v>659.3609367162676</v>
       </c>
       <c r="F41" t="n">
-        <v>426.4117056516951</v>
+        <v>426.4117056516949</v>
       </c>
       <c r="G41" t="n">
         <v>192.1287929871844</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I41" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J41" t="n">
         <v>170.3493986293228</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0933531230682</v>
+        <v>170.3493986293228</v>
       </c>
       <c r="L41" t="n">
-        <v>880.7353517968619</v>
+        <v>613.9913973031165</v>
       </c>
       <c r="M41" t="n">
-        <v>1380.522214344028</v>
+        <v>1113.778259850282</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.125322444047</v>
+        <v>1600.381367950301</v>
       </c>
       <c r="O41" t="n">
-        <v>1867.125322444047</v>
+        <v>1867.125322444048</v>
       </c>
       <c r="P41" t="n">
-        <v>2182.539937674292</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q41" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R41" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S41" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.052290235487</v>
+        <v>2302.052290235488</v>
       </c>
       <c r="U41" t="n">
         <v>2228.418442715222</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>877.8895630412669</v>
+        <v>757.5113444927842</v>
       </c>
       <c r="C42" t="n">
-        <v>716.1858902822216</v>
+        <v>595.807671733739</v>
       </c>
       <c r="D42" t="n">
-        <v>577.3472532724337</v>
+        <v>456.969034723951</v>
       </c>
       <c r="E42" t="n">
-        <v>430.3192433293049</v>
+        <v>309.9410247808222</v>
       </c>
       <c r="F42" t="n">
-        <v>295.6254452791793</v>
+        <v>175.2472267306966</v>
       </c>
       <c r="G42" t="n">
-        <v>167.2282006329504</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H42" t="n">
-        <v>70.48957229250523</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I42" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J42" t="n">
         <v>137.7776953265107</v>
       </c>
       <c r="K42" t="n">
-        <v>419.6942590060963</v>
+        <v>137.7776953265107</v>
       </c>
       <c r="L42" t="n">
-        <v>632.1279333423786</v>
+        <v>574.0927822182698</v>
       </c>
       <c r="M42" t="n">
-        <v>1199.423574990356</v>
+        <v>1141.388423866247</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.192103285643</v>
+        <v>1721.156952161534</v>
       </c>
       <c r="O42" t="n">
-        <v>1779.192103285643</v>
+        <v>1779.192103285644</v>
       </c>
       <c r="P42" t="n">
-        <v>2143.284482678034</v>
+        <v>2143.284482678035</v>
       </c>
       <c r="Q42" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R42" t="n">
-        <v>2303.281723293625</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="S42" t="n">
-        <v>2303.281723293625</v>
+        <v>2182.903504745143</v>
       </c>
       <c r="T42" t="n">
-        <v>2115.931810901352</v>
+        <v>1995.553592352869</v>
       </c>
       <c r="U42" t="n">
-        <v>1897.45881161351</v>
+        <v>1777.080593065027</v>
       </c>
       <c r="V42" t="n">
-        <v>1669.063189061844</v>
+        <v>1548.684970513361</v>
       </c>
       <c r="W42" t="n">
-        <v>1427.747320295154</v>
+        <v>1307.369101746672</v>
       </c>
       <c r="X42" t="n">
-        <v>1229.830332172949</v>
+        <v>1109.452113624466</v>
       </c>
       <c r="Y42" t="n">
-        <v>1037.309005822528</v>
+        <v>916.9307872740451</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.3514140976449</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C43" t="n">
-        <v>163.3514140976449</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D43" t="n">
-        <v>163.3514140976449</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E43" t="n">
-        <v>163.3514140976449</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821552</v>
@@ -7597,22 +7597,22 @@
         <v>779.0418051935923</v>
       </c>
       <c r="T43" t="n">
-        <v>728.2514050027216</v>
+        <v>611.7499729895444</v>
       </c>
       <c r="U43" t="n">
-        <v>622.2782731175232</v>
+        <v>324.5748814790893</v>
       </c>
       <c r="V43" t="n">
-        <v>542.7449283012025</v>
+        <v>245.0415366627687</v>
       </c>
       <c r="W43" t="n">
-        <v>256.5885268186017</v>
+        <v>140.0870948054245</v>
       </c>
       <c r="X43" t="n">
-        <v>206.5380223392342</v>
+        <v>90.03659032605698</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.704823156768</v>
+        <v>49.20339114359079</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1265.298501174359</v>
+        <v>1265.29850117436</v>
       </c>
       <c r="C44" t="n">
-        <v>1064.566702132423</v>
+        <v>1064.566702132424</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849043</v>
+        <v>872.9446969849047</v>
       </c>
       <c r="E44" t="n">
-        <v>659.3609367162679</v>
+        <v>659.3609367162683</v>
       </c>
       <c r="F44" t="n">
-        <v>426.411705651695</v>
+        <v>426.4117056516957</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1287929871844</v>
+        <v>192.1287929871858</v>
       </c>
       <c r="H44" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I44" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J44" t="n">
         <v>170.3493986293228</v>
@@ -7658,40 +7658,40 @@
         <v>1431.105089206963</v>
       </c>
       <c r="N44" t="n">
-        <v>1917.708197306982</v>
+        <v>1459.882795226522</v>
       </c>
       <c r="O44" t="n">
-        <v>1917.708197306982</v>
+        <v>1867.125322444048</v>
       </c>
       <c r="P44" t="n">
-        <v>2182.539937674292</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q44" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R44" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S44" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.052290235487</v>
+        <v>2302.052290235488</v>
       </c>
       <c r="U44" t="n">
-        <v>2228.418442715221</v>
+        <v>2228.418442715222</v>
       </c>
       <c r="V44" t="n">
-        <v>2072.641128236419</v>
+        <v>2072.64112823642</v>
       </c>
       <c r="W44" t="n">
-        <v>1891.308157719277</v>
+        <v>1891.308157719278</v>
       </c>
       <c r="X44" t="n">
-        <v>1690.479976866027</v>
+        <v>1690.479976866028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1478.140081067122</v>
+        <v>1478.140081067123</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>731.2429985303688</v>
+        <v>757.5113444927842</v>
       </c>
       <c r="C45" t="n">
-        <v>569.5393257713235</v>
+        <v>595.807671733739</v>
       </c>
       <c r="D45" t="n">
-        <v>430.7006887615356</v>
+        <v>456.969034723951</v>
       </c>
       <c r="E45" t="n">
-        <v>283.6726788184068</v>
+        <v>309.9410247808222</v>
       </c>
       <c r="F45" t="n">
-        <v>271.9858550711417</v>
+        <v>175.2472267306966</v>
       </c>
       <c r="G45" t="n">
-        <v>143.5886104249128</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H45" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I45" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J45" t="n">
         <v>137.7776953265107</v>
@@ -7734,43 +7734,43 @@
         <v>856.0093458978554</v>
       </c>
       <c r="M45" t="n">
-        <v>1293.284955339401</v>
+        <v>856.0093458978554</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.053483634688</v>
+        <v>1435.777874193143</v>
       </c>
       <c r="O45" t="n">
-        <v>2342.499104223384</v>
+        <v>1905.223494781839</v>
       </c>
       <c r="P45" t="n">
-        <v>2342.499104223384</v>
+        <v>2143.284482678035</v>
       </c>
       <c r="Q45" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R45" t="n">
-        <v>2303.281723293625</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="S45" t="n">
-        <v>2156.635158782727</v>
+        <v>2156.635158782728</v>
       </c>
       <c r="T45" t="n">
-        <v>1969.285246390454</v>
+        <v>1969.285246390455</v>
       </c>
       <c r="U45" t="n">
-        <v>1750.812247102612</v>
+        <v>1750.812247102613</v>
       </c>
       <c r="V45" t="n">
-        <v>1522.416624550946</v>
+        <v>1522.416624550947</v>
       </c>
       <c r="W45" t="n">
-        <v>1281.100755784256</v>
+        <v>1307.369101746672</v>
       </c>
       <c r="X45" t="n">
-        <v>1083.183767662051</v>
+        <v>1109.452113624466</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.6624413116298</v>
+        <v>916.9307872740451</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.3447805990364</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C46" t="n">
-        <v>240.3447805990364</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D46" t="n">
-        <v>87.27288742679914</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E46" t="n">
-        <v>87.27288742679914</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F46" t="n">
-        <v>87.27288742679914</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G46" t="n">
-        <v>87.27288742679914</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H46" t="n">
-        <v>87.27288742679914</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I46" t="n">
-        <v>87.27288742679914</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K46" t="n">
         <v>112.0773324821552</v>
@@ -7837,19 +7837,19 @@
         <v>712.968769006268</v>
       </c>
       <c r="U46" t="n">
-        <v>518.069679993658</v>
+        <v>606.9956371210696</v>
       </c>
       <c r="V46" t="n">
-        <v>438.5363351773374</v>
+        <v>527.462292304749</v>
       </c>
       <c r="W46" t="n">
-        <v>333.5818933199932</v>
+        <v>321.2890544306812</v>
       </c>
       <c r="X46" t="n">
-        <v>283.5313888406257</v>
+        <v>271.2385499513137</v>
       </c>
       <c r="Y46" t="n">
-        <v>242.6981896581595</v>
+        <v>49.20339114359079</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>100.85688547718</v>
+        <v>100.8568854771799</v>
       </c>
       <c r="L11" t="n">
-        <v>384.8113821921642</v>
+        <v>94.83634793195544</v>
       </c>
       <c r="M11" t="n">
-        <v>373.6220010174792</v>
+        <v>369.5074131067839</v>
       </c>
       <c r="N11" t="n">
-        <v>77.0327107254593</v>
+        <v>371.1223328963631</v>
       </c>
       <c r="O11" t="n">
-        <v>377.7737697139621</v>
+        <v>83.6841475430581</v>
       </c>
       <c r="P11" t="n">
-        <v>99.73769917823563</v>
+        <v>393.8273213491395</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056879</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939699</v>
       </c>
       <c r="L12" t="n">
-        <v>241.056593539109</v>
+        <v>323.577352097123</v>
       </c>
       <c r="M12" t="n">
-        <v>32.39068222047777</v>
+        <v>326.4803043913817</v>
       </c>
       <c r="N12" t="n">
-        <v>21.42269043570947</v>
+        <v>315.5123126066134</v>
       </c>
       <c r="O12" t="n">
-        <v>331.9231416865152</v>
+        <v>37.83351951561124</v>
       </c>
       <c r="P12" t="n">
         <v>340.3211412084881</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.87358360675535</v>
+        <v>71.87358360675529</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07871432485237</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>394.9465076480839</v>
+        <v>394.9465076480836</v>
       </c>
       <c r="L14" t="n">
-        <v>215.4686454201038</v>
+        <v>388.9259701028592</v>
       </c>
       <c r="M14" t="n">
-        <v>79.53237884657527</v>
+        <v>373.6220010174789</v>
       </c>
       <c r="N14" t="n">
-        <v>371.1223328963632</v>
+        <v>77.03271072545917</v>
       </c>
       <c r="O14" t="n">
-        <v>377.7737697139621</v>
+        <v>83.6841475430581</v>
       </c>
       <c r="P14" t="n">
-        <v>99.73769917823563</v>
+        <v>257.1980269736937</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517225</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>72.07217095056882</v>
+        <v>162.3779101289704</v>
       </c>
       <c r="K15" t="n">
-        <v>59.04060237939704</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>323.5773520971229</v>
+        <v>41.37013890282103</v>
       </c>
       <c r="M15" t="n">
-        <v>326.4803043913817</v>
+        <v>32.39068222047769</v>
       </c>
       <c r="N15" t="n">
-        <v>315.5123126066134</v>
+        <v>21.42269043570937</v>
       </c>
       <c r="O15" t="n">
-        <v>331.9231416865152</v>
+        <v>331.923141686515</v>
       </c>
       <c r="P15" t="n">
-        <v>46.23151903758426</v>
+        <v>340.3211412084879</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.87358360675535</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,22 +9164,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>394.9465076480839</v>
+        <v>394.9465076480837</v>
       </c>
       <c r="L17" t="n">
         <v>94.83634793195556</v>
       </c>
       <c r="M17" t="n">
-        <v>79.53237884657527</v>
+        <v>373.622001017479</v>
       </c>
       <c r="N17" t="n">
         <v>77.0327107254593</v>
       </c>
       <c r="O17" t="n">
-        <v>373.6591818032668</v>
+        <v>373.6591818032664</v>
       </c>
       <c r="P17" t="n">
-        <v>393.8273213491395</v>
+        <v>99.73769917823563</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9246,22 +9246,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>41.37013890282111</v>
+        <v>335.4597610737248</v>
       </c>
       <c r="M18" t="n">
-        <v>324.939868577821</v>
+        <v>32.39068222047777</v>
       </c>
       <c r="N18" t="n">
         <v>21.42269043570947</v>
       </c>
       <c r="O18" t="n">
-        <v>37.83351951561133</v>
+        <v>331.9231416865151</v>
       </c>
       <c r="P18" t="n">
-        <v>340.3211412084881</v>
+        <v>245.9179736738718</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675535</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485237</v>
       </c>
       <c r="K20" t="n">
-        <v>394.9465076480839</v>
+        <v>100.85688547718</v>
       </c>
       <c r="L20" t="n">
         <v>94.83634793195556</v>
       </c>
       <c r="M20" t="n">
-        <v>79.53237884657527</v>
+        <v>373.622001017479</v>
       </c>
       <c r="N20" t="n">
-        <v>77.0327107254593</v>
+        <v>359.2399239197611</v>
       </c>
       <c r="O20" t="n">
-        <v>373.6591818032668</v>
+        <v>377.773769713962</v>
       </c>
       <c r="P20" t="n">
-        <v>393.8273213491395</v>
+        <v>393.8273213491394</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517225</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,25 +9480,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>342.2643723027915</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L21" t="n">
-        <v>335.459761073725</v>
+        <v>41.37013890282111</v>
       </c>
       <c r="M21" t="n">
-        <v>32.39068222047777</v>
+        <v>326.4803043913815</v>
       </c>
       <c r="N21" t="n">
-        <v>315.5123126066134</v>
+        <v>21.42269043570947</v>
       </c>
       <c r="O21" t="n">
-        <v>37.83351951561133</v>
+        <v>331.9231416865151</v>
       </c>
       <c r="P21" t="n">
-        <v>46.23151903758426</v>
+        <v>340.321141208488</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>262.2346218090944</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9641,22 +9641,22 @@
         <v>100.85688547718</v>
       </c>
       <c r="L23" t="n">
-        <v>388.9259701028594</v>
+        <v>388.9259701028593</v>
       </c>
       <c r="M23" t="n">
-        <v>373.6220010174791</v>
+        <v>373.622001017479</v>
       </c>
       <c r="N23" t="n">
-        <v>197.6650082136074</v>
+        <v>359.239923919761</v>
       </c>
       <c r="O23" t="n">
-        <v>83.68414754305822</v>
+        <v>377.773769713962</v>
       </c>
       <c r="P23" t="n">
-        <v>393.8273213491395</v>
+        <v>99.73769917823563</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517225</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,25 +9714,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056882</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L24" t="n">
-        <v>335.459761073725</v>
+        <v>41.37013890282111</v>
       </c>
       <c r="M24" t="n">
-        <v>32.39068222047777</v>
+        <v>326.4803043913815</v>
       </c>
       <c r="N24" t="n">
-        <v>315.5123126066133</v>
+        <v>315.5123126066132</v>
       </c>
       <c r="O24" t="n">
-        <v>237.5199741518991</v>
+        <v>320.040732709913</v>
       </c>
       <c r="P24" t="n">
-        <v>46.23151903758426</v>
+        <v>340.321141208488</v>
       </c>
       <c r="Q24" t="n">
         <v>71.87358360675535</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056882</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>41.37013890282113</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>511.5131550903457</v>
+        <v>162.6370200906319</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,22 +10188,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056883</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939706</v>
       </c>
       <c r="L30" t="n">
-        <v>421.6542066623038</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>465.1297295992069</v>
       </c>
       <c r="O30" t="n">
-        <v>37.83351951561133</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056882</v>
       </c>
       <c r="K33" t="n">
-        <v>59.04060237939704</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10440,13 +10440,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>270.4683427252287</v>
       </c>
       <c r="P33" t="n">
-        <v>164.1400671925431</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675535</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485237</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10592,13 +10592,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>116.5027895727011</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>151.9223170724346</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
@@ -10662,28 +10662,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056882</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>154.3251294844435</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>605.6799272446573</v>
+        <v>605.6799272446582</v>
       </c>
       <c r="O36" t="n">
-        <v>37.83351951561133</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>385.03828508693</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.87358360675535</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>95.07871432485237</v>
       </c>
       <c r="K38" t="n">
-        <v>100.85688547718</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10832,10 +10832,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>421.2183486329322</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
-        <v>495.0402356415689</v>
+        <v>151.922317072436</v>
       </c>
       <c r="P38" t="n">
         <v>418.3383206229274</v>
@@ -10905,16 +10905,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>41.37013890282111</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>485.2961195449786</v>
       </c>
       <c r="N39" t="n">
-        <v>605.6799272446573</v>
+        <v>21.42269043570947</v>
       </c>
       <c r="O39" t="n">
-        <v>248.3656249124506</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>370.29522334965</v>
+        <v>100.85688547718</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11072,7 +11072,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>83.68414754305822</v>
+        <v>353.1224854155292</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11139,19 +11139,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939704</v>
       </c>
       <c r="L42" t="n">
-        <v>255.9496079293689</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>607.0474664915554</v>
+        <v>607.0474664915556</v>
       </c>
       <c r="O42" t="n">
-        <v>37.83351951561133</v>
+        <v>96.4548842874393</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11306,13 +11306,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>106.1011006442055</v>
       </c>
       <c r="O44" t="n">
-        <v>83.68414754305822</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>367.2445076300634</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11382,19 +11382,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>474.0832170099176</v>
+        <v>32.39068222047777</v>
       </c>
       <c r="N45" t="n">
-        <v>607.0474664915554</v>
+        <v>607.0474664915556</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>46.23151903758426</v>
+        <v>286.6971633771763</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.87358360675535</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>206.7247209130925</v>
+        <v>132.8581149907868</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7060249576204</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E11" t="n">
-        <v>219.448162527526</v>
+        <v>219.4481625275261</v>
       </c>
       <c r="F11" t="n">
-        <v>238.6199786155031</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>239.9403233994415</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>154.6771196809362</v>
+        <v>206.8201389062934</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.2167367024921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
-        <v>197.7060249576204</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>219.448162527526</v>
       </c>
       <c r="F14" t="n">
-        <v>238.6199786155031</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>30.01006706252528</v>
+        <v>239.9403233994415</v>
       </c>
       <c r="H14" t="n">
-        <v>151.8262626552655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>48.04258570959359</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>162.2197811955898</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>187.5198806735467</v>
+        <v>187.5198806735468</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>206.8201389062934</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>174.9395169772715</v>
       </c>
     </row>
     <row r="15">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.345468865802044e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782142.1020802268</v>
+        <v>782142.1020802266</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>948106.6702813911</v>
+        <v>948106.6702813914</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>948106.6702813911</v>
+        <v>948106.6702813915</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>948436.9793568642</v>
+        <v>948436.9793568644</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593554.3894181607</v>
+        <v>593554.3894181608</v>
       </c>
       <c r="C2" t="n">
-        <v>593554.3894181609</v>
+        <v>593554.3894181608</v>
       </c>
       <c r="D2" t="n">
         <v>593554.3894181609</v>
@@ -26323,37 +26323,37 @@
         <v>518697.2685428195</v>
       </c>
       <c r="F2" t="n">
-        <v>518697.2685428197</v>
+        <v>518697.2685428192</v>
       </c>
       <c r="G2" t="n">
+        <v>594908.6468829907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>594908.6468829908</v>
+      </c>
+      <c r="I2" t="n">
+        <v>594908.6468829911</v>
+      </c>
+      <c r="J2" t="n">
         <v>594908.646882991</v>
       </c>
-      <c r="H2" t="n">
-        <v>594908.646882991</v>
-      </c>
-      <c r="I2" t="n">
-        <v>594908.6468829907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>594908.6468829907</v>
-      </c>
       <c r="K2" t="n">
-        <v>594908.6468829907</v>
+        <v>594908.6468829908</v>
       </c>
       <c r="L2" t="n">
-        <v>594908.6468829911</v>
+        <v>594908.6468829913</v>
       </c>
       <c r="M2" t="n">
         <v>594908.646882991</v>
       </c>
       <c r="N2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829911</v>
       </c>
       <c r="O2" t="n">
-        <v>594908.6468829904</v>
+        <v>594908.6468829906</v>
       </c>
       <c r="P2" t="n">
-        <v>594908.6468829904</v>
+        <v>594908.6468829905</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.9880429467</v>
+        <v>347410.9880429468</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80469.26609315912</v>
+        <v>80469.26609315928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>153193.9940866783</v>
+        <v>153193.9940866781</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315912</v>
+        <v>80469.26609315925</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.68593004421</v>
+        <v>63042.68593004407</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873052758</v>
+        <v>329.0996873050569</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>424293.6514672661</v>
       </c>
       <c r="E4" t="n">
-        <v>312560.3075442406</v>
+        <v>312560.3075442405</v>
       </c>
       <c r="F4" t="n">
-        <v>312560.3075442406</v>
+        <v>312560.3075442405</v>
       </c>
       <c r="G4" t="n">
         <v>368687.9792090663</v>
       </c>
       <c r="H4" t="n">
-        <v>368687.9792090663</v>
+        <v>368687.9792090664</v>
       </c>
       <c r="I4" t="n">
         <v>368687.9792090663</v>
       </c>
       <c r="J4" t="n">
-        <v>358899.8032199901</v>
+        <v>358899.8032199902</v>
       </c>
       <c r="K4" t="n">
         <v>358899.8032199901</v>
       </c>
       <c r="L4" t="n">
-        <v>358899.8032199902</v>
+        <v>358899.8032199901</v>
       </c>
       <c r="M4" t="n">
         <v>360570.8158019183</v>
       </c>
       <c r="N4" t="n">
-        <v>360570.8158019183</v>
+        <v>360570.8158019184</v>
       </c>
       <c r="O4" t="n">
-        <v>360532.5601904277</v>
+        <v>360532.5601904278</v>
       </c>
       <c r="P4" t="n">
-        <v>360532.5601904277</v>
+        <v>360532.5601904278</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>44069.15195899521</v>
       </c>
       <c r="J5" t="n">
-        <v>65217.75175230239</v>
+        <v>65217.75175230236</v>
       </c>
       <c r="K5" t="n">
-        <v>65217.75175230237</v>
+        <v>65217.75175230236</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.75175230237</v>
+        <v>65217.75175230236</v>
       </c>
       <c r="M5" t="n">
-        <v>53962.02217862746</v>
+        <v>53962.02217862749</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.02217862746</v>
+        <v>53962.02217862751</v>
       </c>
       <c r="O5" t="n">
-        <v>54010.84806614026</v>
+        <v>54010.84806614028</v>
       </c>
       <c r="P5" t="n">
-        <v>54010.84806614026</v>
+        <v>54010.84806614028</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135633.1379508945</v>
+        <v>135628.7693784274</v>
       </c>
       <c r="C6" t="n">
-        <v>135633.1379508947</v>
+        <v>135628.7693784274</v>
       </c>
       <c r="D6" t="n">
-        <v>135633.1379508947</v>
+        <v>135628.7693784276</v>
       </c>
       <c r="E6" t="n">
-        <v>-176886.9655893806</v>
+        <v>-177132.8087453168</v>
       </c>
       <c r="F6" t="n">
-        <v>170524.0224535661</v>
+        <v>170278.1792976296</v>
       </c>
       <c r="G6" t="n">
-        <v>101682.2496217704</v>
+        <v>101682.2496217699</v>
       </c>
       <c r="H6" t="n">
-        <v>182151.5157149295</v>
+        <v>182151.5157149293</v>
       </c>
       <c r="I6" t="n">
-        <v>182151.5157149293</v>
+        <v>182151.5157149296</v>
       </c>
       <c r="J6" t="n">
-        <v>17597.09782401992</v>
+        <v>17597.09782402035</v>
       </c>
       <c r="K6" t="n">
-        <v>170791.0919106982</v>
+        <v>170791.0919106984</v>
       </c>
       <c r="L6" t="n">
-        <v>90321.82581753944</v>
+        <v>90321.82581753957</v>
       </c>
       <c r="M6" t="n">
-        <v>117333.122972401</v>
+        <v>117333.1229724011</v>
       </c>
       <c r="N6" t="n">
         <v>180375.8089024452</v>
       </c>
       <c r="O6" t="n">
-        <v>180036.1389391171</v>
+        <v>180036.1389391175</v>
       </c>
       <c r="P6" t="n">
         <v>180365.2386264224</v>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F2" t="n">
         <v>171.3897001674282</v>
       </c>
       <c r="G2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="J2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L2" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="M2" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="O2" t="n">
         <v>179.3899400290042</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4646244791966</v>
+        <v>152.4646244791967</v>
       </c>
       <c r="F3" t="n">
-        <v>152.4646244791966</v>
+        <v>152.4646244791967</v>
       </c>
       <c r="G3" t="n">
         <v>152.4646244791966</v>
@@ -26759,10 +26759,10 @@
         <v>152.4646244791966</v>
       </c>
       <c r="J3" t="n">
+        <v>152.4646244791966</v>
+      </c>
+      <c r="K3" t="n">
         <v>152.4646244791965</v>
-      </c>
-      <c r="K3" t="n">
-        <v>152.4646244791966</v>
       </c>
       <c r="L3" t="n">
         <v>152.4646244791966</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.089622170904</v>
       </c>
       <c r="F4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="G4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="H4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="I4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="J4" t="n">
-        <v>878.346858979853</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="K4" t="n">
-        <v>878.3468589798529</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="L4" t="n">
-        <v>878.3468589798529</v>
+        <v>878.3468589798526</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089478</v>
+        <v>584.2572368089486</v>
       </c>
       <c r="N4" t="n">
-        <v>584.2572368089478</v>
+        <v>584.257236808949</v>
       </c>
       <c r="O4" t="n">
-        <v>585.6247760558459</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="P4" t="n">
-        <v>585.6247760558459</v>
+        <v>585.6247760558462</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.5865826164491</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4082420237970814</v>
+        <v>0.4082420237968449</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.5865826164491</v>
       </c>
       <c r="M2" t="n">
-        <v>78.80335741255526</v>
+        <v>78.80335741255509</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4646244791966</v>
+        <v>152.4646244791967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.089622170904</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089491</v>
+        <v>584.2572368089488</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246898104</v>
+        <v>1.367539246897195</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>100.5865826164489</v>
+        <v>100.5865826164491</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4082420237970814</v>
+        <v>0.4082420237968449</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.0896221709039</v>
+        <v>294.089622170904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="D11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="E11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="F11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="G11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="H11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="I11" t="n">
         <v>147.459308470692</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.23037211170284</v>
+        <v>51.2303721117028</v>
       </c>
       <c r="S11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="T11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="X11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.40745017229533</v>
+        <v>56.40745017229532</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>16.12626469609745</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>161.5898669737138</v>
       </c>
       <c r="X12" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="Y12" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28269,7 +28269,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J13" t="n">
-        <v>40.01867628890815</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.12980963648917</v>
+        <v>15.12980963648915</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="T13" t="n">
-        <v>76.32969322656953</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="U13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="V13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
       <c r="W13" t="n">
-        <v>171.3897001674282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>171.3897001674282</v>
+        <v>112.0549615054146</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.3897001674282</v>
+        <v>171.3897001674281</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.23037211170284</v>
+        <v>51.2303721117028</v>
       </c>
       <c r="S14" t="n">
         <v>171.3897001674282</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I15" t="n">
-        <v>56.40745017229533</v>
+        <v>56.40745017229532</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.82520712046112</v>
       </c>
       <c r="S15" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>171.3897001674282</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>171.3897001674282</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>164.2871656875793</v>
+        <v>60.40269266375978</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>147.6395525646456</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H16" t="n">
         <v>155.3344859367049</v>
@@ -28506,7 +28506,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>40.01867628890813</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,13 +28527,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.12980963648917</v>
+        <v>15.12980963648915</v>
       </c>
       <c r="R16" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S16" t="n">
-        <v>171.3897001674282</v>
+        <v>112.0549615054142</v>
       </c>
       <c r="T16" t="n">
         <v>171.3897001674282</v>
@@ -28542,10 +28542,10 @@
         <v>171.3897001674282</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>171.3897001674282</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>171.3897001674282</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="D17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="E17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="F17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="G17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I17" t="n">
         <v>147.459308470692</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="W17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="Y17" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -28655,13 +28655,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.40745017229533</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.27016236913589</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>186.1631752554638</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.9556149377512</v>
@@ -28770,7 +28770,7 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.6724362179661</v>
@@ -28779,13 +28779,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>8.269881827380544</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X19" t="n">
-        <v>195.2327244125698</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="C20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="E20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="F20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="G20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I20" t="n">
         <v>147.459308470692</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="W20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="Y20" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>29.40786197597578</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H21" t="n">
-        <v>95.77124205704072</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>56.40745017229533</v>
@@ -28928,13 +28928,13 @@
         <v>38.82520712046114</v>
       </c>
       <c r="S21" t="n">
-        <v>145.180098865789</v>
+        <v>96.3401821167617</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2882692949636</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -28965,19 +28965,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H22" t="n">
         <v>155.3344859367049</v>
       </c>
       <c r="I22" t="n">
-        <v>118.3474398657939</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J22" t="n">
         <v>40.01867628890815</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.6724362179661</v>
       </c>
       <c r="U22" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>106.9026477882216</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="E23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="F23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="G23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="H23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="I23" t="n">
         <v>147.459308470692</v>
@@ -29092,19 +29092,19 @@
         <v>219.4322858770218</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2874490740672</v>
+        <v>252.2874490740658</v>
       </c>
       <c r="V23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="W23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I24" t="n">
         <v>56.40745017229533</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.82520712046114</v>
       </c>
       <c r="S24" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T24" t="n">
-        <v>151.9392917419465</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2882692949636</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>61.62989617825764</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,25 +29193,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.9556149377512</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I25" t="n">
         <v>134.4929323504436</v>
@@ -29241,22 +29241,22 @@
         <v>15.12980963648917</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>206.781276689585</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="V25" t="n">
-        <v>17.52247171264008</v>
+        <v>196.8792887972772</v>
       </c>
       <c r="W25" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838773</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M26" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901715</v>
       </c>
       <c r="N26" t="n">
-        <v>40.87787536901806</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P26" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y26" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402445</v>
       </c>
       <c r="K28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J29" t="n">
-        <v>100.9948246402459</v>
+        <v>90.64232789755994</v>
       </c>
       <c r="K29" t="n">
-        <v>40.87787536901817</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R29" t="n">
-        <v>100.9948246402459</v>
+        <v>51.23037211170285</v>
       </c>
       <c r="S29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y29" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="C31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="D31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="E31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="F31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="G31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="I31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="J31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="K31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="L31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="M31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="N31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="O31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="P31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="R31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="S31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="T31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="U31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="V31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="W31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="X31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.9948246402459</v>
+        <v>100.994824640246</v>
       </c>
     </row>
     <row r="32">
@@ -29773,13 +29773,13 @@
         <v>100.9948246402459</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="L32" t="n">
-        <v>90.64232789756085</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>100.9948246402459</v>
@@ -29791,10 +29791,10 @@
         <v>100.9948246402459</v>
       </c>
       <c r="Q32" t="n">
+        <v>40.87787536901868</v>
+      </c>
+      <c r="R32" t="n">
         <v>100.9948246402459</v>
-      </c>
-      <c r="R32" t="n">
-        <v>51.23037211170284</v>
       </c>
       <c r="S32" t="n">
         <v>100.9948246402459</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="C35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="D35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="E35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="F35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="G35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="H35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="I35" t="n">
         <v>147.459308470692</v>
@@ -30037,22 +30037,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="U35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="V35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="W35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="X35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
     </row>
     <row r="36">
@@ -30080,7 +30080,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I36" t="n">
         <v>56.40745017229533</v>
@@ -30110,10 +30110,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>88.25884374873316</v>
+        <v>31.31280881215076</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>33.34706238089039</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30192,25 +30192,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S37" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>61.60407019317753</v>
       </c>
       <c r="U37" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="V37" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="W37" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="X37" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.7981820528012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="C38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="D38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="E38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="F38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="G38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="H38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="I38" t="n">
         <v>147.459308470692</v>
@@ -30274,22 +30274,22 @@
         <v>171.3897001674282</v>
       </c>
       <c r="T38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="U38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="V38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="W38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="X38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
     </row>
     <row r="39">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.82520712046114</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>144.6662939210287</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>31.312808812149</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>20.50449526584003</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H40" t="n">
         <v>155.3344859367049</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.12980963648917</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.6644318885835</v>
       </c>
       <c r="S40" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="T40" t="n">
-        <v>179.7981820528012</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="V40" t="n">
-        <v>179.7981820528012</v>
+        <v>76.73387982966682</v>
       </c>
       <c r="W40" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="X40" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.7981820528012</v>
+        <v>179.798182052801</v>
       </c>
     </row>
     <row r="41">
@@ -30554,10 +30554,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I42" t="n">
-        <v>33.00425586633816</v>
+        <v>56.40745017229533</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>145.180098865789</v>
+        <v>26.00566250279053</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>35.61943073143522</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>166.9556149377512</v>
@@ -30669,16 +30669,16 @@
         <v>179.3899400290042</v>
       </c>
       <c r="T43" t="n">
-        <v>179.3899400290042</v>
+        <v>64.05352233595872</v>
       </c>
       <c r="U43" t="n">
-        <v>179.3899400290042</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>179.3899400290042</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="X43" t="n">
         <v>179.3899400290042</v>
@@ -30785,13 +30785,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>121.7769045598319</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77124205704072</v>
       </c>
       <c r="I45" t="n">
         <v>56.40745017229533</v>
@@ -30836,7 +30836,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>26.00566250279027</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -30876,7 +30876,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.01867628890815</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30909,19 +30909,19 @@
         <v>179.3899400290042</v>
       </c>
       <c r="U46" t="n">
-        <v>91.3532424728667</v>
+        <v>179.3899400290042</v>
       </c>
       <c r="V46" t="n">
         <v>179.3899400290042</v>
       </c>
       <c r="W46" t="n">
-        <v>179.3899400290042</v>
+        <v>79.1833319724478</v>
       </c>
       <c r="X46" t="n">
         <v>179.3899400290042</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.3899400290042</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6129231134842069</v>
+        <v>0.6129231134842076</v>
       </c>
       <c r="H11" t="n">
-        <v>6.277098835970135</v>
+        <v>6.277098835970143</v>
       </c>
       <c r="I11" t="n">
-        <v>23.62971833259991</v>
+        <v>23.62971833259994</v>
       </c>
       <c r="J11" t="n">
-        <v>52.02108310308025</v>
+        <v>52.02108310308031</v>
       </c>
       <c r="K11" t="n">
-        <v>77.96611849686674</v>
+        <v>77.96611849686683</v>
       </c>
       <c r="L11" t="n">
-        <v>96.72386423115906</v>
+        <v>96.72386423115917</v>
       </c>
       <c r="M11" t="n">
-        <v>107.6239356505838</v>
+        <v>107.6239356505839</v>
       </c>
       <c r="N11" t="n">
-        <v>109.3654034467708</v>
+        <v>109.365403446771</v>
       </c>
       <c r="O11" t="n">
-        <v>103.2706492370622</v>
+        <v>103.2706492370624</v>
       </c>
       <c r="P11" t="n">
-        <v>88.13910987292087</v>
+        <v>88.13910987292097</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.18880087126769</v>
+        <v>66.18880087126776</v>
       </c>
       <c r="R11" t="n">
-        <v>38.50153152740234</v>
+        <v>38.50153152740238</v>
       </c>
       <c r="S11" t="n">
-        <v>13.96698544852138</v>
+        <v>13.96698544852139</v>
       </c>
       <c r="T11" t="n">
-        <v>2.683070929277117</v>
+        <v>2.68307092927712</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04903384907873654</v>
+        <v>0.04903384907873659</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3279427771816681</v>
+        <v>0.3279427771816685</v>
       </c>
       <c r="H12" t="n">
-        <v>3.167236821728216</v>
+        <v>3.16723682172822</v>
       </c>
       <c r="I12" t="n">
-        <v>11.29101228454428</v>
+        <v>11.29101228454429</v>
       </c>
       <c r="J12" t="n">
-        <v>30.98340071609787</v>
+        <v>30.9834007160979</v>
       </c>
       <c r="K12" t="n">
-        <v>52.95556678726963</v>
+        <v>52.95556678726969</v>
       </c>
       <c r="L12" t="n">
-        <v>71.20529466832667</v>
+        <v>71.20529466832676</v>
       </c>
       <c r="M12" t="n">
-        <v>83.09322034116212</v>
+        <v>83.09322034116221</v>
       </c>
       <c r="N12" t="n">
-        <v>85.29245063199885</v>
+        <v>85.29245063199895</v>
       </c>
       <c r="O12" t="n">
-        <v>78.02592909549978</v>
+        <v>78.02592909549986</v>
       </c>
       <c r="P12" t="n">
-        <v>62.62268698655907</v>
+        <v>62.62268698655914</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.86160783813715</v>
+        <v>41.8616078381372</v>
       </c>
       <c r="R12" t="n">
-        <v>20.36121909554252</v>
+        <v>20.36121909554255</v>
       </c>
       <c r="S12" t="n">
-        <v>6.091393251598086</v>
+        <v>6.091393251598093</v>
       </c>
       <c r="T12" t="n">
-        <v>1.321839527324355</v>
+        <v>1.321839527324356</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02157518270932028</v>
+        <v>0.0215751827093203</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2749362080772397</v>
+        <v>0.27493620807724</v>
       </c>
       <c r="H13" t="n">
-        <v>2.444432831814006</v>
+        <v>2.444432831814008</v>
       </c>
       <c r="I13" t="n">
-        <v>8.26808160290463</v>
+        <v>8.268081602904639</v>
       </c>
       <c r="J13" t="n">
-        <v>19.43798991106085</v>
+        <v>19.43798991106087</v>
       </c>
       <c r="K13" t="n">
-        <v>31.94258853842839</v>
+        <v>31.94258853842842</v>
       </c>
       <c r="L13" t="n">
-        <v>40.87551588086526</v>
+        <v>40.87551588086531</v>
       </c>
       <c r="M13" t="n">
-        <v>43.09750032614403</v>
+        <v>43.09750032614408</v>
       </c>
       <c r="N13" t="n">
-        <v>42.07273809603799</v>
+        <v>42.07273809603804</v>
       </c>
       <c r="O13" t="n">
-        <v>38.86098330168113</v>
+        <v>38.86098330168117</v>
       </c>
       <c r="P13" t="n">
-        <v>33.25228465690541</v>
+        <v>33.25228465690545</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02215829635868</v>
+        <v>23.02215829635871</v>
       </c>
       <c r="R13" t="n">
-        <v>12.36213168318207</v>
+        <v>12.36213168318208</v>
       </c>
       <c r="S13" t="n">
-        <v>4.791388280764258</v>
+        <v>4.791388280764263</v>
       </c>
       <c r="T13" t="n">
-        <v>1.174727434511842</v>
+        <v>1.174727434511843</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01499652044057673</v>
+        <v>0.01499652044057674</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6129231134842069</v>
+        <v>0.6129231134842076</v>
       </c>
       <c r="H14" t="n">
-        <v>6.277098835970135</v>
+        <v>6.277098835970143</v>
       </c>
       <c r="I14" t="n">
-        <v>23.62971833259991</v>
+        <v>23.62971833259994</v>
       </c>
       <c r="J14" t="n">
-        <v>52.02108310308025</v>
+        <v>52.02108310308031</v>
       </c>
       <c r="K14" t="n">
-        <v>77.96611849686674</v>
+        <v>77.96611849686683</v>
       </c>
       <c r="L14" t="n">
-        <v>96.72386423115906</v>
+        <v>96.72386423115917</v>
       </c>
       <c r="M14" t="n">
-        <v>107.6239356505838</v>
+        <v>107.6239356505839</v>
       </c>
       <c r="N14" t="n">
-        <v>109.3654034467708</v>
+        <v>109.365403446771</v>
       </c>
       <c r="O14" t="n">
-        <v>103.2706492370622</v>
+        <v>103.2706492370624</v>
       </c>
       <c r="P14" t="n">
-        <v>88.13910987292087</v>
+        <v>88.13910987292097</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.18880087126769</v>
+        <v>66.18880087126776</v>
       </c>
       <c r="R14" t="n">
-        <v>38.50153152740234</v>
+        <v>38.50153152740238</v>
       </c>
       <c r="S14" t="n">
-        <v>13.96698544852138</v>
+        <v>13.96698544852139</v>
       </c>
       <c r="T14" t="n">
-        <v>2.683070929277117</v>
+        <v>2.68307092927712</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04903384907873654</v>
+        <v>0.04903384907873659</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3279427771816681</v>
+        <v>0.3279427771816685</v>
       </c>
       <c r="H15" t="n">
-        <v>3.167236821728216</v>
+        <v>3.16723682172822</v>
       </c>
       <c r="I15" t="n">
-        <v>11.29101228454428</v>
+        <v>11.29101228454429</v>
       </c>
       <c r="J15" t="n">
-        <v>30.98340071609787</v>
+        <v>30.9834007160979</v>
       </c>
       <c r="K15" t="n">
-        <v>52.95556678726963</v>
+        <v>52.95556678726969</v>
       </c>
       <c r="L15" t="n">
-        <v>71.20529466832667</v>
+        <v>71.20529466832676</v>
       </c>
       <c r="M15" t="n">
-        <v>83.09322034116212</v>
+        <v>83.09322034116221</v>
       </c>
       <c r="N15" t="n">
-        <v>85.29245063199885</v>
+        <v>85.29245063199895</v>
       </c>
       <c r="O15" t="n">
-        <v>78.02592909549978</v>
+        <v>78.02592909549986</v>
       </c>
       <c r="P15" t="n">
-        <v>62.62268698655907</v>
+        <v>62.62268698655914</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.86160783813715</v>
+        <v>41.8616078381372</v>
       </c>
       <c r="R15" t="n">
-        <v>20.36121909554252</v>
+        <v>20.36121909554255</v>
       </c>
       <c r="S15" t="n">
-        <v>6.091393251598086</v>
+        <v>6.091393251598093</v>
       </c>
       <c r="T15" t="n">
-        <v>1.321839527324355</v>
+        <v>1.321839527324356</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02157518270932028</v>
+        <v>0.0215751827093203</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2749362080772397</v>
+        <v>0.27493620807724</v>
       </c>
       <c r="H16" t="n">
-        <v>2.444432831814006</v>
+        <v>2.444432831814008</v>
       </c>
       <c r="I16" t="n">
-        <v>8.26808160290463</v>
+        <v>8.268081602904639</v>
       </c>
       <c r="J16" t="n">
-        <v>19.43798991106085</v>
+        <v>19.43798991106087</v>
       </c>
       <c r="K16" t="n">
-        <v>31.94258853842839</v>
+        <v>31.94258853842842</v>
       </c>
       <c r="L16" t="n">
-        <v>40.87551588086526</v>
+        <v>40.87551588086531</v>
       </c>
       <c r="M16" t="n">
-        <v>43.09750032614403</v>
+        <v>43.09750032614408</v>
       </c>
       <c r="N16" t="n">
-        <v>42.07273809603799</v>
+        <v>42.07273809603804</v>
       </c>
       <c r="O16" t="n">
-        <v>38.86098330168113</v>
+        <v>38.86098330168117</v>
       </c>
       <c r="P16" t="n">
-        <v>33.25228465690541</v>
+        <v>33.25228465690545</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02215829635868</v>
+        <v>23.02215829635871</v>
       </c>
       <c r="R16" t="n">
-        <v>12.36213168318207</v>
+        <v>12.36213168318208</v>
       </c>
       <c r="S16" t="n">
-        <v>4.791388280764258</v>
+        <v>4.791388280764263</v>
       </c>
       <c r="T16" t="n">
-        <v>1.174727434511842</v>
+        <v>1.174727434511843</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01499652044057673</v>
+        <v>0.01499652044057674</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6129231134842067</v>
+        <v>0.6129231134842069</v>
       </c>
       <c r="H26" t="n">
-        <v>6.277098835970134</v>
+        <v>6.277098835970135</v>
       </c>
       <c r="I26" t="n">
-        <v>23.6297183325999</v>
+        <v>23.62971833259991</v>
       </c>
       <c r="J26" t="n">
-        <v>52.02108310308024</v>
+        <v>52.02108310308025</v>
       </c>
       <c r="K26" t="n">
-        <v>77.96611849686673</v>
+        <v>77.96611849686674</v>
       </c>
       <c r="L26" t="n">
-        <v>96.72386423115904</v>
+        <v>96.72386423115906</v>
       </c>
       <c r="M26" t="n">
         <v>107.6239356505838</v>
@@ -32962,10 +32962,10 @@
         <v>103.2706492370622</v>
       </c>
       <c r="P26" t="n">
-        <v>88.13910987292086</v>
+        <v>88.13910987292087</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.18880087126767</v>
+        <v>66.18880087126769</v>
       </c>
       <c r="R26" t="n">
         <v>38.50153152740234</v>
@@ -32974,10 +32974,10 @@
         <v>13.96698544852138</v>
       </c>
       <c r="T26" t="n">
-        <v>2.683070929277116</v>
+        <v>2.683070929277117</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04903384907873653</v>
+        <v>0.04903384907873654</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.327942777181668</v>
+        <v>0.3279427771816681</v>
       </c>
       <c r="H27" t="n">
         <v>3.167236821728216</v>
       </c>
       <c r="I27" t="n">
-        <v>11.29101228454427</v>
+        <v>11.29101228454428</v>
       </c>
       <c r="J27" t="n">
-        <v>30.98340071609786</v>
+        <v>30.98340071609787</v>
       </c>
       <c r="K27" t="n">
-        <v>52.95556678726962</v>
+        <v>52.95556678726963</v>
       </c>
       <c r="L27" t="n">
-        <v>71.20529466832666</v>
+        <v>71.20529466832667</v>
       </c>
       <c r="M27" t="n">
-        <v>83.09322034116211</v>
+        <v>83.09322034116212</v>
       </c>
       <c r="N27" t="n">
-        <v>85.29245063199883</v>
+        <v>85.29245063199885</v>
       </c>
       <c r="O27" t="n">
-        <v>78.02592909549976</v>
+        <v>78.02592909549978</v>
       </c>
       <c r="P27" t="n">
-        <v>62.62268698655905</v>
+        <v>62.62268698655907</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.86160783813714</v>
+        <v>41.86160783813715</v>
       </c>
       <c r="R27" t="n">
         <v>20.36121909554252</v>
       </c>
       <c r="S27" t="n">
-        <v>6.091393251598085</v>
+        <v>6.091393251598086</v>
       </c>
       <c r="T27" t="n">
-        <v>1.321839527324354</v>
+        <v>1.321839527324355</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02157518270932027</v>
+        <v>0.02157518270932028</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2749362080772396</v>
+        <v>0.2749362080772397</v>
       </c>
       <c r="H28" t="n">
-        <v>2.444432831814005</v>
+        <v>2.444432831814006</v>
       </c>
       <c r="I28" t="n">
-        <v>8.268081602904628</v>
+        <v>8.26808160290463</v>
       </c>
       <c r="J28" t="n">
-        <v>19.43798991106084</v>
+        <v>19.43798991106085</v>
       </c>
       <c r="K28" t="n">
-        <v>31.94258853842838</v>
+        <v>31.94258853842839</v>
       </c>
       <c r="L28" t="n">
-        <v>40.87551588086525</v>
+        <v>40.87551588086526</v>
       </c>
       <c r="M28" t="n">
-        <v>43.09750032614402</v>
+        <v>43.09750032614403</v>
       </c>
       <c r="N28" t="n">
-        <v>42.07273809603798</v>
+        <v>42.07273809603799</v>
       </c>
       <c r="O28" t="n">
-        <v>38.86098330168112</v>
+        <v>38.86098330168113</v>
       </c>
       <c r="P28" t="n">
         <v>33.25228465690541</v>
@@ -33126,10 +33126,10 @@
         <v>23.02215829635868</v>
       </c>
       <c r="R28" t="n">
-        <v>12.36213168318206</v>
+        <v>12.36213168318207</v>
       </c>
       <c r="S28" t="n">
-        <v>4.791388280764257</v>
+        <v>4.791388280764258</v>
       </c>
       <c r="T28" t="n">
         <v>1.174727434511842</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842069</v>
+        <v>0.6129231134842067</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970135</v>
+        <v>6.277098835970134</v>
       </c>
       <c r="I29" t="n">
-        <v>23.62971833259991</v>
+        <v>23.6297183325999</v>
       </c>
       <c r="J29" t="n">
-        <v>52.02108310308025</v>
+        <v>52.02108310308024</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686674</v>
+        <v>77.96611849686673</v>
       </c>
       <c r="L29" t="n">
-        <v>96.72386423115906</v>
+        <v>96.72386423115904</v>
       </c>
       <c r="M29" t="n">
         <v>107.6239356505838</v>
@@ -33199,10 +33199,10 @@
         <v>103.2706492370622</v>
       </c>
       <c r="P29" t="n">
-        <v>88.13910987292087</v>
+        <v>88.13910987292086</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126769</v>
+        <v>66.18880087126767</v>
       </c>
       <c r="R29" t="n">
         <v>38.50153152740234</v>
@@ -33211,10 +33211,10 @@
         <v>13.96698544852138</v>
       </c>
       <c r="T29" t="n">
-        <v>2.683070929277117</v>
+        <v>2.683070929277116</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04903384907873654</v>
+        <v>0.04903384907873653</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3279427771816681</v>
+        <v>0.327942777181668</v>
       </c>
       <c r="H30" t="n">
         <v>3.167236821728216</v>
       </c>
       <c r="I30" t="n">
-        <v>11.29101228454428</v>
+        <v>11.29101228454427</v>
       </c>
       <c r="J30" t="n">
-        <v>30.98340071609787</v>
+        <v>30.98340071609786</v>
       </c>
       <c r="K30" t="n">
-        <v>52.95556678726963</v>
+        <v>52.95556678726962</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832667</v>
+        <v>71.20529466832666</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116212</v>
+        <v>83.09322034116211</v>
       </c>
       <c r="N30" t="n">
-        <v>85.29245063199885</v>
+        <v>85.29245063199883</v>
       </c>
       <c r="O30" t="n">
-        <v>78.02592909549978</v>
+        <v>78.02592909549976</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655907</v>
+        <v>62.62268698655905</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.86160783813715</v>
+        <v>41.86160783813714</v>
       </c>
       <c r="R30" t="n">
         <v>20.36121909554252</v>
       </c>
       <c r="S30" t="n">
-        <v>6.091393251598086</v>
+        <v>6.091393251598085</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321839527324355</v>
+        <v>1.321839527324354</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02157518270932028</v>
+        <v>0.02157518270932027</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2749362080772397</v>
+        <v>0.2749362080772396</v>
       </c>
       <c r="H31" t="n">
-        <v>2.444432831814006</v>
+        <v>2.444432831814005</v>
       </c>
       <c r="I31" t="n">
-        <v>8.26808160290463</v>
+        <v>8.268081602904628</v>
       </c>
       <c r="J31" t="n">
-        <v>19.43798991106085</v>
+        <v>19.43798991106084</v>
       </c>
       <c r="K31" t="n">
-        <v>31.94258853842839</v>
+        <v>31.94258853842838</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086526</v>
+        <v>40.87551588086525</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09750032614403</v>
+        <v>43.09750032614402</v>
       </c>
       <c r="N31" t="n">
-        <v>42.07273809603799</v>
+        <v>42.07273809603798</v>
       </c>
       <c r="O31" t="n">
-        <v>38.86098330168113</v>
+        <v>38.86098330168112</v>
       </c>
       <c r="P31" t="n">
         <v>33.25228465690541</v>
@@ -33363,10 +33363,10 @@
         <v>23.02215829635868</v>
       </c>
       <c r="R31" t="n">
-        <v>12.36213168318207</v>
+        <v>12.36213168318206</v>
       </c>
       <c r="S31" t="n">
-        <v>4.791388280764258</v>
+        <v>4.791388280764257</v>
       </c>
       <c r="T31" t="n">
         <v>1.174727434511842</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7468853988435</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>289.9750342602086</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>294.0896221709039</v>
+        <v>289.9750342602087</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>294.089622170904</v>
       </c>
       <c r="O11" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>294.089622170904</v>
       </c>
       <c r="Q11" t="n">
-        <v>161.5749157061535</v>
+        <v>161.5749157061536</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.84617499196267</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>199.6864546362879</v>
+        <v>282.207213194302</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>294.089622170904</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>294.089622170904</v>
       </c>
       <c r="O12" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0896221709039</v>
+        <v>294.089622170904</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.88621252291668</v>
+        <v>65.88621252291672</v>
       </c>
       <c r="L13" t="n">
-        <v>142.4988284063799</v>
+        <v>142.49882840638</v>
       </c>
       <c r="M13" t="n">
         <v>162.2828600509943</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6912651158363</v>
+        <v>161.6912651158364</v>
       </c>
       <c r="O13" t="n">
         <v>138.3192120852061</v>
       </c>
       <c r="P13" t="n">
-        <v>96.85681367522642</v>
+        <v>96.85681367522645</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.7468853988436</v>
       </c>
       <c r="K14" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="L14" t="n">
-        <v>120.6322974881482</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N14" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>157.4603277954582</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.5749157061535</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>90.30573917840159</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>284.7642057369552</v>
       </c>
       <c r="L15" t="n">
-        <v>282.2072131943018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.2268904498485</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.88621252291668</v>
+        <v>65.88621252291672</v>
       </c>
       <c r="L16" t="n">
-        <v>142.4988284063799</v>
+        <v>142.49882840638</v>
       </c>
       <c r="M16" t="n">
         <v>162.2828600509943</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6912651158363</v>
+        <v>161.6912651158364</v>
       </c>
       <c r="O16" t="n">
         <v>138.3192120852061</v>
       </c>
       <c r="P16" t="n">
-        <v>96.85681367522642</v>
+        <v>96.85681367522645</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>124.7468853988435</v>
       </c>
       <c r="K17" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>289.9750342602086</v>
+        <v>289.9750342602082</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>161.5749157061535</v>
@@ -35966,22 +35966,22 @@
         <v>284.7642057369551</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M18" t="n">
-        <v>292.5491863573432</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P18" t="n">
-        <v>294.0896221709039</v>
+        <v>199.6864546362875</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.2268904498485</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.7468853988435</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="O20" t="n">
-        <v>289.9750342602086</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P20" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.5749157061535</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>91.84617499196267</v>
       </c>
       <c r="K21" t="n">
-        <v>283.2237699233945</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N21" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.2268904498485</v>
+        <v>190.361038202339</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M23" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N23" t="n">
-        <v>120.6322974881481</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>161.5749157061535</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-1.378022275413528e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.84617499196267</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>294.0896221709039</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N24" t="n">
-        <v>294.0896221709039</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O24" t="n">
-        <v>199.6864546362877</v>
+        <v>282.2072131943017</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.7417100390895</v>
+        <v>225.7417100390896</v>
       </c>
       <c r="K26" t="n">
-        <v>421.5269755055801</v>
+        <v>421.5269755055802</v>
       </c>
       <c r="L26" t="n">
         <v>549.118055623876</v>
       </c>
       <c r="M26" t="n">
-        <v>605.8300393343529</v>
+        <v>545.7130900631241</v>
       </c>
       <c r="N26" t="n">
-        <v>532.3961663791381</v>
+        <v>592.5131156503661</v>
       </c>
       <c r="O26" t="n">
-        <v>512.3509127387566</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P26" t="n">
-        <v>419.5954460849377</v>
+        <v>318.6006214446918</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.5749157061535</v>
+        <v>262.5697403463996</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854309</v>
+        <v>49.76445252854317</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.84617499196266</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>284.7642057369551</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>440.7223099916758</v>
       </c>
       <c r="M27" t="n">
-        <v>479.1224728698679</v>
+        <v>130.2463378701541</v>
       </c>
       <c r="N27" t="n">
         <v>601.72239621091</v>
       </c>
       <c r="O27" t="n">
-        <v>474.187495544137</v>
+        <v>474.1874955441371</v>
       </c>
       <c r="P27" t="n">
         <v>367.7700801943341</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.97614835133778</v>
+        <v>60.97614835133633</v>
       </c>
       <c r="K28" t="n">
-        <v>166.8810371631626</v>
+        <v>166.8810371631627</v>
       </c>
       <c r="L28" t="n">
-        <v>243.4936530466258</v>
+        <v>243.4936530466259</v>
       </c>
       <c r="M28" t="n">
-        <v>263.2776846912402</v>
+        <v>263.2776846912403</v>
       </c>
       <c r="N28" t="n">
-        <v>262.6860897560823</v>
+        <v>262.6860897560824</v>
       </c>
       <c r="O28" t="n">
-        <v>239.314036725452</v>
+        <v>239.3140367254521</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8516383154723</v>
+        <v>197.8516383154724</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375677</v>
+        <v>85.86501500375684</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>225.7417100390895</v>
+        <v>215.3892132964035</v>
       </c>
       <c r="K29" t="n">
-        <v>361.4100262343524</v>
+        <v>320.5321508653342</v>
       </c>
       <c r="L29" t="n">
-        <v>448.12323098363</v>
+        <v>549.118055623876</v>
       </c>
       <c r="M29" t="n">
         <v>605.8300393343529</v>
@@ -36853,7 +36853,7 @@
         <v>262.5697403463995</v>
       </c>
       <c r="R29" t="n">
-        <v>49.7644525285431</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.84617499196267</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>380.2840677594827</v>
+        <v>440.7223099916758</v>
       </c>
       <c r="M30" t="n">
         <v>573.0259006545222</v>
       </c>
       <c r="N30" t="n">
-        <v>601.72239621091</v>
+        <v>443.7070391634975</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>474.187495544137</v>
       </c>
       <c r="P30" t="n">
         <v>367.7700801943341</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97614835133778</v>
+        <v>60.9761483513378</v>
       </c>
       <c r="K31" t="n">
-        <v>166.8810371631625</v>
+        <v>166.8810371631626</v>
       </c>
       <c r="L31" t="n">
-        <v>243.4936530466258</v>
+        <v>243.4936530466259</v>
       </c>
       <c r="M31" t="n">
         <v>263.2776846912402</v>
@@ -37008,7 +37008,7 @@
         <v>197.8516383154723</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86501500375677</v>
+        <v>85.86501500375678</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.7417100390895</v>
+        <v>225.7417100390894</v>
       </c>
       <c r="K32" t="n">
-        <v>320.5321508653342</v>
+        <v>421.5269755055801</v>
       </c>
       <c r="L32" t="n">
-        <v>538.7655588811908</v>
+        <v>549.1180556238759</v>
       </c>
       <c r="M32" t="n">
-        <v>605.8300393343529</v>
+        <v>504.835214694107</v>
       </c>
       <c r="N32" t="n">
         <v>592.513115650366</v>
@@ -37087,10 +37087,10 @@
         <v>419.5954460849377</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5697403463995</v>
+        <v>202.4527910751722</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.76445252854307</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.84617499196267</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>284.7642057369551</v>
       </c>
       <c r="L33" t="n">
         <v>440.7223099916758</v>
@@ -37160,13 +37160,13 @@
         <v>601.72239621091</v>
       </c>
       <c r="O33" t="n">
-        <v>474.1874955441371</v>
+        <v>232.6348232096174</v>
       </c>
       <c r="P33" t="n">
-        <v>117.9085481549588</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q33" t="n">
-        <v>201.2268904498485</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133778</v>
+        <v>60.97614835133776</v>
       </c>
       <c r="K34" t="n">
         <v>166.8810371631626</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4936530466259</v>
+        <v>243.4936530466258</v>
       </c>
       <c r="M34" t="n">
         <v>263.2776846912402</v>
@@ -37242,10 +37242,10 @@
         <v>239.314036725452</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8516383154724</v>
+        <v>197.8516383154723</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375677</v>
+        <v>85.86501500375674</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7468853988435</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>320.5321508653342</v>
@@ -37312,13 +37312,13 @@
         <v>448.12323098363</v>
       </c>
       <c r="M35" t="n">
-        <v>36.97041072612585</v>
+        <v>504.835214694107</v>
       </c>
       <c r="N35" t="n">
         <v>491.51829101012</v>
       </c>
       <c r="O35" t="n">
-        <v>411.3560880985107</v>
+        <v>68.23816952937636</v>
       </c>
       <c r="P35" t="n">
         <v>318.6006214446918</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.84617499196267</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>440.7223099916758</v>
+        <v>112.9549905816224</v>
       </c>
       <c r="M36" t="n">
         <v>573.0259006545222</v>
       </c>
       <c r="N36" t="n">
-        <v>584.2572368089478</v>
+        <v>584.2572368089486</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>474.1874955441371</v>
       </c>
       <c r="P36" t="n">
-        <v>338.8067660493458</v>
+        <v>367.7700801943341</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>201.2268904498485</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.7468853988435</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>320.5321508653342</v>
       </c>
       <c r="L38" t="n">
         <v>448.12323098363</v>
@@ -37552,10 +37552,10 @@
         <v>504.835214694107</v>
       </c>
       <c r="N38" t="n">
-        <v>344.1856379074729</v>
+        <v>491.51829101012</v>
       </c>
       <c r="O38" t="n">
-        <v>411.3560880985107</v>
+        <v>68.23816952937774</v>
       </c>
       <c r="P38" t="n">
         <v>318.6006214446918</v>
@@ -37625,16 +37625,16 @@
         <v>284.7642057369551</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>440.7223099916758</v>
       </c>
       <c r="M39" t="n">
-        <v>573.0259006545222</v>
+        <v>452.9054373245009</v>
       </c>
       <c r="N39" t="n">
-        <v>584.2572368089478</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>210.5321053968393</v>
+        <v>474.1874955441371</v>
       </c>
       <c r="P39" t="n">
         <v>367.7700801943341</v>
@@ -37780,7 +37780,7 @@
         <v>124.7468853988435</v>
       </c>
       <c r="K41" t="n">
-        <v>269.4383378724701</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>448.12323098363</v>
@@ -37792,7 +37792,7 @@
         <v>491.51829101012</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>269.438337872471</v>
       </c>
       <c r="P41" t="n">
         <v>318.6006214446918</v>
@@ -37859,19 +37859,19 @@
         <v>91.84617499196267</v>
       </c>
       <c r="K42" t="n">
-        <v>284.7642057369551</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>214.5794690265477</v>
+        <v>440.7223099916758</v>
       </c>
       <c r="M42" t="n">
         <v>573.0259006545222</v>
       </c>
       <c r="N42" t="n">
-        <v>585.6247760558459</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>58.62136477182797</v>
       </c>
       <c r="P42" t="n">
         <v>367.7700801943341</v>
@@ -38026,13 +38026,13 @@
         <v>504.835214694107</v>
       </c>
       <c r="N44" t="n">
-        <v>491.51829101012</v>
+        <v>29.06838991874623</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>411.3560880985107</v>
       </c>
       <c r="P44" t="n">
-        <v>267.5068084518278</v>
+        <v>318.6006214446918</v>
       </c>
       <c r="Q44" t="n">
         <v>161.5749157061535</v>
@@ -38102,19 +38102,19 @@
         <v>440.7223099916758</v>
       </c>
       <c r="M45" t="n">
-        <v>441.6925347894398</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>585.6247760558459</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="O45" t="n">
         <v>474.1874955441371</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>240.4656443395921</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>201.2268904498485</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
